--- a/StROBe/Data/EV_load_profile.xlsx
+++ b/StROBe/Data/EV_load_profile.xlsx
@@ -3704,102 +3704,102 @@
     </row>
     <row r="667" spans="1:1">
       <c r="A667">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:1">
@@ -4379,142 +4379,142 @@
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="830" spans="1:1">
@@ -4729,77 +4729,77 @@
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="887" spans="1:1">
@@ -5529,467 +5529,467 @@
     </row>
     <row r="1032" spans="1:1">
       <c r="A1032">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:1">
       <c r="A1033">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:1">
       <c r="A1034">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:1">
       <c r="A1035">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:1">
       <c r="A1036">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:1">
       <c r="A1037">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:1">
       <c r="A1038">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:1">
       <c r="A1039">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1040" spans="1:1">
       <c r="A1040">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:1">
       <c r="A1041">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:1">
       <c r="A1042">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:1">
       <c r="A1043">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:1">
       <c r="A1044">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:1">
       <c r="A1045">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:1">
       <c r="A1046">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:1">
       <c r="A1047">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:1">
       <c r="A1048">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:1">
       <c r="A1049">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:1">
       <c r="A1050">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:1">
       <c r="A1051">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
@@ -6779,337 +6779,337 @@
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
@@ -11579,72 +11579,72 @@
     </row>
     <row r="2242" spans="1:1">
       <c r="A2242">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2243" spans="1:1">
       <c r="A2243">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2244" spans="1:1">
       <c r="A2244">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2245" spans="1:1">
       <c r="A2245">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2246" spans="1:1">
       <c r="A2246">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2247" spans="1:1">
       <c r="A2247">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2248" spans="1:1">
       <c r="A2248">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2249" spans="1:1">
       <c r="A2249">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2250" spans="1:1">
       <c r="A2250">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2251" spans="1:1">
       <c r="A2251">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2252" spans="1:1">
       <c r="A2252">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2253" spans="1:1">
       <c r="A2253">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2254" spans="1:1">
       <c r="A2254">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2255" spans="1:1">
       <c r="A2255">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2256" spans="1:1">
@@ -11829,252 +11829,252 @@
     </row>
     <row r="2292" spans="1:1">
       <c r="A2292">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2293" spans="1:1">
       <c r="A2293">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2294" spans="1:1">
       <c r="A2294">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2295" spans="1:1">
       <c r="A2295">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2296" spans="1:1">
       <c r="A2296">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2297" spans="1:1">
       <c r="A2297">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2298" spans="1:1">
       <c r="A2298">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2299" spans="1:1">
       <c r="A2299">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2300" spans="1:1">
       <c r="A2300">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301" spans="1:1">
       <c r="A2301">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2302" spans="1:1">
       <c r="A2302">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2303" spans="1:1">
       <c r="A2303">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2304" spans="1:1">
       <c r="A2304">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2305" spans="1:1">
       <c r="A2305">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2306" spans="1:1">
       <c r="A2306">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2307" spans="1:1">
       <c r="A2307">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308" spans="1:1">
       <c r="A2308">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2309" spans="1:1">
       <c r="A2309">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2310" spans="1:1">
       <c r="A2310">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2311" spans="1:1">
       <c r="A2311">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2312" spans="1:1">
       <c r="A2312">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2313" spans="1:1">
       <c r="A2313">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2314" spans="1:1">
       <c r="A2314">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2315" spans="1:1">
       <c r="A2315">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2316" spans="1:1">
       <c r="A2316">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2317" spans="1:1">
       <c r="A2317">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2318" spans="1:1">
       <c r="A2318">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2319" spans="1:1">
       <c r="A2319">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2320" spans="1:1">
       <c r="A2320">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2321" spans="1:1">
       <c r="A2321">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2322" spans="1:1">
       <c r="A2322">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2323" spans="1:1">
       <c r="A2323">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2324" spans="1:1">
       <c r="A2324">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2325" spans="1:1">
       <c r="A2325">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2326" spans="1:1">
       <c r="A2326">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2327" spans="1:1">
       <c r="A2327">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2328" spans="1:1">
       <c r="A2328">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2329" spans="1:1">
       <c r="A2329">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2330" spans="1:1">
       <c r="A2330">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2331" spans="1:1">
       <c r="A2331">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2332" spans="1:1">
       <c r="A2332">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2333" spans="1:1">
       <c r="A2333">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2334" spans="1:1">
       <c r="A2334">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2335" spans="1:1">
       <c r="A2335">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2336" spans="1:1">
       <c r="A2336">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2337" spans="1:1">
       <c r="A2337">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2338" spans="1:1">
       <c r="A2338">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2339" spans="1:1">
       <c r="A2339">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2340" spans="1:1">
       <c r="A2340">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2341" spans="1:1">
       <c r="A2341">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2342" spans="1:1">
@@ -12479,632 +12479,632 @@
     </row>
     <row r="2422" spans="1:1">
       <c r="A2422">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2423" spans="1:1">
       <c r="A2423">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2424" spans="1:1">
       <c r="A2424">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2425" spans="1:1">
       <c r="A2425">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2426" spans="1:1">
       <c r="A2426">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2427" spans="1:1">
       <c r="A2427">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2428" spans="1:1">
       <c r="A2428">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2429" spans="1:1">
       <c r="A2429">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2430" spans="1:1">
       <c r="A2430">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2431" spans="1:1">
       <c r="A2431">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2432" spans="1:1">
       <c r="A2432">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2433" spans="1:1">
       <c r="A2433">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2434" spans="1:1">
       <c r="A2434">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2435" spans="1:1">
       <c r="A2435">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2436" spans="1:1">
       <c r="A2436">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2437" spans="1:1">
       <c r="A2437">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2438" spans="1:1">
       <c r="A2438">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2439" spans="1:1">
       <c r="A2439">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2440" spans="1:1">
       <c r="A2440">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2441" spans="1:1">
       <c r="A2441">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2442" spans="1:1">
       <c r="A2442">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2443" spans="1:1">
       <c r="A2443">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2444" spans="1:1">
       <c r="A2444">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2445" spans="1:1">
       <c r="A2445">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2446" spans="1:1">
       <c r="A2446">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2447" spans="1:1">
       <c r="A2447">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448" spans="1:1">
       <c r="A2448">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2449" spans="1:1">
       <c r="A2449">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450" spans="1:1">
       <c r="A2450">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2451" spans="1:1">
       <c r="A2451">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452" spans="1:1">
       <c r="A2452">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2453" spans="1:1">
       <c r="A2453">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454" spans="1:1">
       <c r="A2454">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2455" spans="1:1">
       <c r="A2455">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2456" spans="1:1">
       <c r="A2456">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2457" spans="1:1">
       <c r="A2457">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2458" spans="1:1">
       <c r="A2458">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2459" spans="1:1">
       <c r="A2459">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2460" spans="1:1">
       <c r="A2460">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2461" spans="1:1">
       <c r="A2461">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:1">
       <c r="A2462">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2463" spans="1:1">
       <c r="A2463">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464" spans="1:1">
       <c r="A2464">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2465" spans="1:1">
       <c r="A2465">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466" spans="1:1">
       <c r="A2466">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2467" spans="1:1">
       <c r="A2467">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2468" spans="1:1">
       <c r="A2468">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2469" spans="1:1">
       <c r="A2469">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2470" spans="1:1">
       <c r="A2470">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2471" spans="1:1">
       <c r="A2471">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2472" spans="1:1">
       <c r="A2472">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2473" spans="1:1">
       <c r="A2473">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2474" spans="1:1">
       <c r="A2474">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2475" spans="1:1">
       <c r="A2475">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2476" spans="1:1">
       <c r="A2476">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2477" spans="1:1">
       <c r="A2477">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2478" spans="1:1">
       <c r="A2478">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2479" spans="1:1">
       <c r="A2479">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2480" spans="1:1">
       <c r="A2480">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2481" spans="1:1">
       <c r="A2481">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2482" spans="1:1">
       <c r="A2482">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2483" spans="1:1">
       <c r="A2483">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2484" spans="1:1">
       <c r="A2484">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485" spans="1:1">
       <c r="A2485">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486" spans="1:1">
       <c r="A2486">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2487" spans="1:1">
       <c r="A2487">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2488" spans="1:1">
       <c r="A2488">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2489" spans="1:1">
       <c r="A2489">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2490" spans="1:1">
       <c r="A2490">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491" spans="1:1">
       <c r="A2491">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2492" spans="1:1">
       <c r="A2492">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2493" spans="1:1">
       <c r="A2493">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2494" spans="1:1">
       <c r="A2494">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2495" spans="1:1">
       <c r="A2495">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2496" spans="1:1">
       <c r="A2496">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2497" spans="1:1">
       <c r="A2497">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498" spans="1:1">
       <c r="A2498">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="1:1">
       <c r="A2499">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2500" spans="1:1">
       <c r="A2500">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2501" spans="1:1">
       <c r="A2501">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2502" spans="1:1">
       <c r="A2502">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2503" spans="1:1">
       <c r="A2503">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2504" spans="1:1">
       <c r="A2504">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2505" spans="1:1">
       <c r="A2505">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2506" spans="1:1">
       <c r="A2506">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2507" spans="1:1">
       <c r="A2507">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2508" spans="1:1">
       <c r="A2508">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2509" spans="1:1">
       <c r="A2509">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2510" spans="1:1">
       <c r="A2510">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2511" spans="1:1">
       <c r="A2511">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2512" spans="1:1">
       <c r="A2512">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2513" spans="1:1">
       <c r="A2513">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2514" spans="1:1">
       <c r="A2514">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2515" spans="1:1">
       <c r="A2515">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2516" spans="1:1">
       <c r="A2516">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2517" spans="1:1">
       <c r="A2517">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2518" spans="1:1">
       <c r="A2518">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2519" spans="1:1">
       <c r="A2519">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2520" spans="1:1">
       <c r="A2520">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2521" spans="1:1">
       <c r="A2521">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2522" spans="1:1">
       <c r="A2522">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2523" spans="1:1">
       <c r="A2523">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2524" spans="1:1">
       <c r="A2524">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2525" spans="1:1">
       <c r="A2525">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2526" spans="1:1">
       <c r="A2526">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2527" spans="1:1">
       <c r="A2527">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2528" spans="1:1">
       <c r="A2528">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2529" spans="1:1">
       <c r="A2529">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2530" spans="1:1">
       <c r="A2530">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2531" spans="1:1">
       <c r="A2531">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2532" spans="1:1">
       <c r="A2532">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2533" spans="1:1">
       <c r="A2533">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2534" spans="1:1">
       <c r="A2534">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2535" spans="1:1">
       <c r="A2535">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2536" spans="1:1">
       <c r="A2536">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2537" spans="1:1">
       <c r="A2537">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2538" spans="1:1">
       <c r="A2538">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2539" spans="1:1">
       <c r="A2539">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2540" spans="1:1">
       <c r="A2540">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2541" spans="1:1">
       <c r="A2541">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2542" spans="1:1">
       <c r="A2542">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2543" spans="1:1">
       <c r="A2543">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2544" spans="1:1">
       <c r="A2544">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2545" spans="1:1">
       <c r="A2545">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2546" spans="1:1">
       <c r="A2546">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2547" spans="1:1">
       <c r="A2547">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2548" spans="1:1">
@@ -13479,647 +13479,647 @@
     </row>
     <row r="2622" spans="1:1">
       <c r="A2622">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2623" spans="1:1">
       <c r="A2623">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2624" spans="1:1">
       <c r="A2624">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2625" spans="1:1">
       <c r="A2625">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2626" spans="1:1">
       <c r="A2626">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2627" spans="1:1">
       <c r="A2627">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2628" spans="1:1">
       <c r="A2628">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2629" spans="1:1">
       <c r="A2629">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2630" spans="1:1">
       <c r="A2630">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2631" spans="1:1">
       <c r="A2631">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2632" spans="1:1">
       <c r="A2632">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2633" spans="1:1">
       <c r="A2633">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2634" spans="1:1">
       <c r="A2634">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2635" spans="1:1">
       <c r="A2635">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2636" spans="1:1">
       <c r="A2636">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2637" spans="1:1">
       <c r="A2637">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2638" spans="1:1">
       <c r="A2638">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2639" spans="1:1">
       <c r="A2639">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2640" spans="1:1">
       <c r="A2640">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2641" spans="1:1">
       <c r="A2641">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2642" spans="1:1">
       <c r="A2642">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2643" spans="1:1">
       <c r="A2643">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2644" spans="1:1">
       <c r="A2644">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2645" spans="1:1">
       <c r="A2645">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2646" spans="1:1">
       <c r="A2646">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2647" spans="1:1">
       <c r="A2647">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2648" spans="1:1">
       <c r="A2648">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2649" spans="1:1">
       <c r="A2649">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2650" spans="1:1">
       <c r="A2650">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2651" spans="1:1">
       <c r="A2651">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2652" spans="1:1">
       <c r="A2652">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2653" spans="1:1">
       <c r="A2653">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2654" spans="1:1">
       <c r="A2654">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2655" spans="1:1">
       <c r="A2655">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2656" spans="1:1">
       <c r="A2656">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2657" spans="1:1">
       <c r="A2657">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2658" spans="1:1">
       <c r="A2658">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2659" spans="1:1">
       <c r="A2659">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2660" spans="1:1">
       <c r="A2660">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2661" spans="1:1">
       <c r="A2661">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2662" spans="1:1">
       <c r="A2662">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2663" spans="1:1">
       <c r="A2663">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2664" spans="1:1">
       <c r="A2664">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2665" spans="1:1">
       <c r="A2665">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2666" spans="1:1">
       <c r="A2666">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2667" spans="1:1">
       <c r="A2667">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2668" spans="1:1">
       <c r="A2668">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2669" spans="1:1">
       <c r="A2669">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2670" spans="1:1">
       <c r="A2670">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2671" spans="1:1">
       <c r="A2671">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2672" spans="1:1">
       <c r="A2672">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2673" spans="1:1">
       <c r="A2673">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2674" spans="1:1">
       <c r="A2674">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2675" spans="1:1">
       <c r="A2675">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2676" spans="1:1">
       <c r="A2676">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2677" spans="1:1">
       <c r="A2677">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2678" spans="1:1">
       <c r="A2678">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2679" spans="1:1">
       <c r="A2679">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2680" spans="1:1">
       <c r="A2680">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2681" spans="1:1">
       <c r="A2681">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2682" spans="1:1">
       <c r="A2682">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2683" spans="1:1">
       <c r="A2683">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2684" spans="1:1">
       <c r="A2684">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2685" spans="1:1">
       <c r="A2685">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2686" spans="1:1">
       <c r="A2686">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2687" spans="1:1">
       <c r="A2687">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2688" spans="1:1">
       <c r="A2688">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2689" spans="1:1">
       <c r="A2689">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2690" spans="1:1">
       <c r="A2690">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2691" spans="1:1">
       <c r="A2691">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2692" spans="1:1">
       <c r="A2692">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2693" spans="1:1">
       <c r="A2693">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2694" spans="1:1">
       <c r="A2694">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2695" spans="1:1">
       <c r="A2695">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2696" spans="1:1">
       <c r="A2696">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2697" spans="1:1">
       <c r="A2697">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2698" spans="1:1">
       <c r="A2698">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2699" spans="1:1">
       <c r="A2699">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2700" spans="1:1">
       <c r="A2700">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2701" spans="1:1">
       <c r="A2701">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2702" spans="1:1">
       <c r="A2702">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2703" spans="1:1">
       <c r="A2703">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2704" spans="1:1">
       <c r="A2704">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2705" spans="1:1">
       <c r="A2705">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2706" spans="1:1">
       <c r="A2706">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2707" spans="1:1">
       <c r="A2707">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2708" spans="1:1">
       <c r="A2708">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2709" spans="1:1">
       <c r="A2709">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2710" spans="1:1">
       <c r="A2710">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2711" spans="1:1">
       <c r="A2711">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2712" spans="1:1">
       <c r="A2712">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2713" spans="1:1">
       <c r="A2713">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2714" spans="1:1">
       <c r="A2714">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2715" spans="1:1">
       <c r="A2715">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2716" spans="1:1">
       <c r="A2716">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2717" spans="1:1">
       <c r="A2717">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2718" spans="1:1">
       <c r="A2718">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2719" spans="1:1">
       <c r="A2719">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2720" spans="1:1">
       <c r="A2720">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2721" spans="1:1">
       <c r="A2721">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2722" spans="1:1">
       <c r="A2722">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2723" spans="1:1">
       <c r="A2723">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2724" spans="1:1">
       <c r="A2724">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2725" spans="1:1">
       <c r="A2725">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2726" spans="1:1">
       <c r="A2726">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2727" spans="1:1">
       <c r="A2727">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2728" spans="1:1">
       <c r="A2728">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2729" spans="1:1">
       <c r="A2729">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2730" spans="1:1">
       <c r="A2730">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2731" spans="1:1">
       <c r="A2731">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2732" spans="1:1">
       <c r="A2732">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2733" spans="1:1">
       <c r="A2733">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2734" spans="1:1">
       <c r="A2734">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2735" spans="1:1">
       <c r="A2735">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2736" spans="1:1">
       <c r="A2736">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2737" spans="1:1">
       <c r="A2737">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2738" spans="1:1">
       <c r="A2738">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2739" spans="1:1">
       <c r="A2739">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2740" spans="1:1">
       <c r="A2740">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2741" spans="1:1">
       <c r="A2741">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2742" spans="1:1">
       <c r="A2742">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2743" spans="1:1">
       <c r="A2743">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2744" spans="1:1">
       <c r="A2744">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2745" spans="1:1">
       <c r="A2745">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2746" spans="1:1">
       <c r="A2746">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2747" spans="1:1">
       <c r="A2747">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2748" spans="1:1">
       <c r="A2748">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2749" spans="1:1">
       <c r="A2749">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2750" spans="1:1">
       <c r="A2750">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2751" spans="1:1">
@@ -32529,302 +32529,302 @@
     </row>
     <row r="6432" spans="1:1">
       <c r="A6432">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6433" spans="1:1">
       <c r="A6433">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6434" spans="1:1">
       <c r="A6434">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6435" spans="1:1">
       <c r="A6435">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6436" spans="1:1">
       <c r="A6436">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6437" spans="1:1">
       <c r="A6437">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6438" spans="1:1">
       <c r="A6438">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6439" spans="1:1">
       <c r="A6439">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6440" spans="1:1">
       <c r="A6440">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6441" spans="1:1">
       <c r="A6441">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6442" spans="1:1">
       <c r="A6442">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6443" spans="1:1">
       <c r="A6443">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6444" spans="1:1">
       <c r="A6444">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6445" spans="1:1">
       <c r="A6445">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6446" spans="1:1">
       <c r="A6446">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6447" spans="1:1">
       <c r="A6447">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6448" spans="1:1">
       <c r="A6448">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6449" spans="1:1">
       <c r="A6449">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6450" spans="1:1">
       <c r="A6450">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6451" spans="1:1">
       <c r="A6451">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6452" spans="1:1">
       <c r="A6452">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6453" spans="1:1">
       <c r="A6453">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6454" spans="1:1">
       <c r="A6454">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6455" spans="1:1">
       <c r="A6455">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6456" spans="1:1">
       <c r="A6456">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6457" spans="1:1">
       <c r="A6457">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6458" spans="1:1">
       <c r="A6458">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6459" spans="1:1">
       <c r="A6459">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6460" spans="1:1">
       <c r="A6460">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6461" spans="1:1">
       <c r="A6461">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6462" spans="1:1">
       <c r="A6462">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6463" spans="1:1">
       <c r="A6463">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6464" spans="1:1">
       <c r="A6464">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6465" spans="1:1">
       <c r="A6465">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6466" spans="1:1">
       <c r="A6466">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6467" spans="1:1">
       <c r="A6467">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6468" spans="1:1">
       <c r="A6468">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6469" spans="1:1">
       <c r="A6469">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6470" spans="1:1">
       <c r="A6470">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6471" spans="1:1">
       <c r="A6471">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6472" spans="1:1">
       <c r="A6472">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6473" spans="1:1">
       <c r="A6473">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6474" spans="1:1">
       <c r="A6474">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6475" spans="1:1">
       <c r="A6475">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6476" spans="1:1">
       <c r="A6476">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6477" spans="1:1">
       <c r="A6477">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6478" spans="1:1">
       <c r="A6478">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6479" spans="1:1">
       <c r="A6479">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6480" spans="1:1">
       <c r="A6480">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6481" spans="1:1">
       <c r="A6481">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6482" spans="1:1">
       <c r="A6482">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6483" spans="1:1">
       <c r="A6483">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6484" spans="1:1">
       <c r="A6484">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6485" spans="1:1">
       <c r="A6485">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6486" spans="1:1">
       <c r="A6486">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6487" spans="1:1">
       <c r="A6487">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6488" spans="1:1">
       <c r="A6488">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6489" spans="1:1">
       <c r="A6489">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6490" spans="1:1">
       <c r="A6490">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6491" spans="1:1">
       <c r="A6491">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6492" spans="1:1">
@@ -32879,252 +32879,252 @@
     </row>
     <row r="6502" spans="1:1">
       <c r="A6502">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6503" spans="1:1">
       <c r="A6503">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6504" spans="1:1">
       <c r="A6504">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6505" spans="1:1">
       <c r="A6505">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6506" spans="1:1">
       <c r="A6506">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6507" spans="1:1">
       <c r="A6507">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6508" spans="1:1">
       <c r="A6508">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6509" spans="1:1">
       <c r="A6509">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6510" spans="1:1">
       <c r="A6510">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6511" spans="1:1">
       <c r="A6511">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6512" spans="1:1">
       <c r="A6512">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6513" spans="1:1">
       <c r="A6513">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6514" spans="1:1">
       <c r="A6514">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6515" spans="1:1">
       <c r="A6515">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6516" spans="1:1">
       <c r="A6516">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6517" spans="1:1">
       <c r="A6517">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6518" spans="1:1">
       <c r="A6518">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6519" spans="1:1">
       <c r="A6519">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6520" spans="1:1">
       <c r="A6520">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6521" spans="1:1">
       <c r="A6521">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6522" spans="1:1">
       <c r="A6522">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6523" spans="1:1">
       <c r="A6523">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6524" spans="1:1">
       <c r="A6524">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6525" spans="1:1">
       <c r="A6525">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6526" spans="1:1">
       <c r="A6526">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6527" spans="1:1">
       <c r="A6527">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6528" spans="1:1">
       <c r="A6528">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6529" spans="1:1">
       <c r="A6529">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6530" spans="1:1">
       <c r="A6530">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6531" spans="1:1">
       <c r="A6531">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6532" spans="1:1">
       <c r="A6532">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6533" spans="1:1">
       <c r="A6533">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6534" spans="1:1">
       <c r="A6534">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6535" spans="1:1">
       <c r="A6535">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6536" spans="1:1">
       <c r="A6536">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6537" spans="1:1">
       <c r="A6537">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6538" spans="1:1">
       <c r="A6538">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6539" spans="1:1">
       <c r="A6539">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6540" spans="1:1">
       <c r="A6540">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6541" spans="1:1">
       <c r="A6541">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6542" spans="1:1">
       <c r="A6542">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6543" spans="1:1">
       <c r="A6543">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6544" spans="1:1">
       <c r="A6544">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6545" spans="1:1">
       <c r="A6545">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6546" spans="1:1">
       <c r="A6546">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6547" spans="1:1">
       <c r="A6547">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6548" spans="1:1">
       <c r="A6548">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6549" spans="1:1">
       <c r="A6549">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6550" spans="1:1">
       <c r="A6550">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6551" spans="1:1">
       <c r="A6551">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6552" spans="1:1">
@@ -33334,97 +33334,97 @@
     </row>
     <row r="6593" spans="1:1">
       <c r="A6593">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6594" spans="1:1">
       <c r="A6594">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6595" spans="1:1">
       <c r="A6595">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6596" spans="1:1">
       <c r="A6596">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6597" spans="1:1">
       <c r="A6597">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6598" spans="1:1">
       <c r="A6598">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6599" spans="1:1">
       <c r="A6599">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6600" spans="1:1">
       <c r="A6600">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6601" spans="1:1">
       <c r="A6601">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6602" spans="1:1">
       <c r="A6602">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6603" spans="1:1">
       <c r="A6603">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6604" spans="1:1">
       <c r="A6604">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6605" spans="1:1">
       <c r="A6605">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6606" spans="1:1">
       <c r="A6606">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6607" spans="1:1">
       <c r="A6607">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6608" spans="1:1">
       <c r="A6608">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6609" spans="1:1">
       <c r="A6609">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6610" spans="1:1">
       <c r="A6610">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6611" spans="1:1">
       <c r="A6611">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6612" spans="1:1">
@@ -33459,422 +33459,422 @@
     </row>
     <row r="6618" spans="1:1">
       <c r="A6618">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6619" spans="1:1">
       <c r="A6619">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6620" spans="1:1">
       <c r="A6620">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6621" spans="1:1">
       <c r="A6621">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6622" spans="1:1">
       <c r="A6622">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6623" spans="1:1">
       <c r="A6623">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6624" spans="1:1">
       <c r="A6624">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6625" spans="1:1">
       <c r="A6625">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6626" spans="1:1">
       <c r="A6626">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6627" spans="1:1">
       <c r="A6627">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6628" spans="1:1">
       <c r="A6628">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6629" spans="1:1">
       <c r="A6629">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6630" spans="1:1">
       <c r="A6630">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6631" spans="1:1">
       <c r="A6631">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6632" spans="1:1">
       <c r="A6632">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6633" spans="1:1">
       <c r="A6633">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6634" spans="1:1">
       <c r="A6634">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6635" spans="1:1">
       <c r="A6635">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6636" spans="1:1">
       <c r="A6636">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6637" spans="1:1">
       <c r="A6637">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6638" spans="1:1">
       <c r="A6638">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6639" spans="1:1">
       <c r="A6639">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6640" spans="1:1">
       <c r="A6640">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6641" spans="1:1">
       <c r="A6641">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6642" spans="1:1">
       <c r="A6642">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6643" spans="1:1">
       <c r="A6643">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6644" spans="1:1">
       <c r="A6644">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6645" spans="1:1">
       <c r="A6645">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6646" spans="1:1">
       <c r="A6646">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6647" spans="1:1">
       <c r="A6647">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6648" spans="1:1">
       <c r="A6648">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6649" spans="1:1">
       <c r="A6649">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6650" spans="1:1">
       <c r="A6650">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6651" spans="1:1">
       <c r="A6651">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6652" spans="1:1">
       <c r="A6652">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6653" spans="1:1">
       <c r="A6653">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6654" spans="1:1">
       <c r="A6654">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6655" spans="1:1">
       <c r="A6655">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6656" spans="1:1">
       <c r="A6656">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6657" spans="1:1">
       <c r="A6657">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6658" spans="1:1">
       <c r="A6658">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6659" spans="1:1">
       <c r="A6659">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6660" spans="1:1">
       <c r="A6660">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6661" spans="1:1">
       <c r="A6661">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6662" spans="1:1">
       <c r="A6662">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6663" spans="1:1">
       <c r="A6663">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6664" spans="1:1">
       <c r="A6664">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6665" spans="1:1">
       <c r="A6665">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6666" spans="1:1">
       <c r="A6666">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6667" spans="1:1">
       <c r="A6667">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6668" spans="1:1">
       <c r="A6668">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6669" spans="1:1">
       <c r="A6669">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6670" spans="1:1">
       <c r="A6670">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6671" spans="1:1">
       <c r="A6671">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6672" spans="1:1">
       <c r="A6672">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6673" spans="1:1">
       <c r="A6673">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6674" spans="1:1">
       <c r="A6674">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6675" spans="1:1">
       <c r="A6675">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6676" spans="1:1">
       <c r="A6676">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6677" spans="1:1">
       <c r="A6677">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6678" spans="1:1">
       <c r="A6678">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6679" spans="1:1">
       <c r="A6679">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6680" spans="1:1">
       <c r="A6680">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6681" spans="1:1">
       <c r="A6681">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6682" spans="1:1">
       <c r="A6682">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6683" spans="1:1">
       <c r="A6683">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6684" spans="1:1">
       <c r="A6684">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6685" spans="1:1">
       <c r="A6685">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6686" spans="1:1">
       <c r="A6686">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6687" spans="1:1">
       <c r="A6687">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6688" spans="1:1">
       <c r="A6688">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6689" spans="1:1">
       <c r="A6689">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6690" spans="1:1">
       <c r="A6690">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6691" spans="1:1">
       <c r="A6691">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6692" spans="1:1">
       <c r="A6692">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6693" spans="1:1">
       <c r="A6693">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6694" spans="1:1">
       <c r="A6694">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6695" spans="1:1">
       <c r="A6695">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6696" spans="1:1">
       <c r="A6696">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6697" spans="1:1">
       <c r="A6697">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6698" spans="1:1">
       <c r="A6698">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6699" spans="1:1">
       <c r="A6699">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6700" spans="1:1">
       <c r="A6700">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6701" spans="1:1">
       <c r="A6701">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6702" spans="1:1">
@@ -34179,102 +34179,102 @@
     </row>
     <row r="6762" spans="1:1">
       <c r="A6762">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6763" spans="1:1">
       <c r="A6763">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6764" spans="1:1">
       <c r="A6764">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6765" spans="1:1">
       <c r="A6765">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6766" spans="1:1">
       <c r="A6766">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6767" spans="1:1">
       <c r="A6767">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6768" spans="1:1">
       <c r="A6768">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6769" spans="1:1">
       <c r="A6769">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6770" spans="1:1">
       <c r="A6770">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6771" spans="1:1">
       <c r="A6771">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6772" spans="1:1">
       <c r="A6772">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6773" spans="1:1">
       <c r="A6773">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6774" spans="1:1">
       <c r="A6774">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6775" spans="1:1">
       <c r="A6775">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6776" spans="1:1">
       <c r="A6776">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6777" spans="1:1">
       <c r="A6777">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6778" spans="1:1">
       <c r="A6778">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6779" spans="1:1">
       <c r="A6779">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6780" spans="1:1">
       <c r="A6780">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6781" spans="1:1">
       <c r="A6781">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6782" spans="1:1">
@@ -34679,282 +34679,282 @@
     </row>
     <row r="6862" spans="1:1">
       <c r="A6862">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6863" spans="1:1">
       <c r="A6863">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6864" spans="1:1">
       <c r="A6864">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6865" spans="1:1">
       <c r="A6865">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6866" spans="1:1">
       <c r="A6866">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6867" spans="1:1">
       <c r="A6867">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6868" spans="1:1">
       <c r="A6868">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6869" spans="1:1">
       <c r="A6869">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6870" spans="1:1">
       <c r="A6870">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6871" spans="1:1">
       <c r="A6871">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6872" spans="1:1">
       <c r="A6872">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6873" spans="1:1">
       <c r="A6873">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6874" spans="1:1">
       <c r="A6874">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6875" spans="1:1">
       <c r="A6875">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6876" spans="1:1">
       <c r="A6876">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6877" spans="1:1">
       <c r="A6877">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6878" spans="1:1">
       <c r="A6878">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6879" spans="1:1">
       <c r="A6879">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6880" spans="1:1">
       <c r="A6880">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6881" spans="1:1">
       <c r="A6881">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6882" spans="1:1">
       <c r="A6882">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6883" spans="1:1">
       <c r="A6883">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6884" spans="1:1">
       <c r="A6884">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6885" spans="1:1">
       <c r="A6885">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6886" spans="1:1">
       <c r="A6886">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6887" spans="1:1">
       <c r="A6887">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6888" spans="1:1">
       <c r="A6888">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6889" spans="1:1">
       <c r="A6889">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6890" spans="1:1">
       <c r="A6890">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6891" spans="1:1">
       <c r="A6891">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6892" spans="1:1">
       <c r="A6892">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6893" spans="1:1">
       <c r="A6893">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6894" spans="1:1">
       <c r="A6894">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6895" spans="1:1">
       <c r="A6895">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6896" spans="1:1">
       <c r="A6896">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6897" spans="1:1">
       <c r="A6897">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6898" spans="1:1">
       <c r="A6898">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6899" spans="1:1">
       <c r="A6899">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6900" spans="1:1">
       <c r="A6900">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6901" spans="1:1">
       <c r="A6901">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6902" spans="1:1">
       <c r="A6902">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6903" spans="1:1">
       <c r="A6903">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6904" spans="1:1">
       <c r="A6904">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6905" spans="1:1">
       <c r="A6905">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6906" spans="1:1">
       <c r="A6906">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6907" spans="1:1">
       <c r="A6907">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6908" spans="1:1">
       <c r="A6908">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6909" spans="1:1">
       <c r="A6909">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6910" spans="1:1">
       <c r="A6910">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6911" spans="1:1">
       <c r="A6911">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6912" spans="1:1">
       <c r="A6912">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6913" spans="1:1">
       <c r="A6913">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6914" spans="1:1">
       <c r="A6914">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6915" spans="1:1">
       <c r="A6915">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6916" spans="1:1">
       <c r="A6916">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6917" spans="1:1">
       <c r="A6917">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6918" spans="1:1">
@@ -40879,302 +40879,302 @@
     </row>
     <row r="8102" spans="1:1">
       <c r="A8102">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8103" spans="1:1">
       <c r="A8103">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8104" spans="1:1">
       <c r="A8104">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8105" spans="1:1">
       <c r="A8105">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8106" spans="1:1">
       <c r="A8106">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8107" spans="1:1">
       <c r="A8107">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8108" spans="1:1">
       <c r="A8108">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8109" spans="1:1">
       <c r="A8109">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8110" spans="1:1">
       <c r="A8110">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8111" spans="1:1">
       <c r="A8111">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8112" spans="1:1">
       <c r="A8112">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8113" spans="1:1">
       <c r="A8113">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8114" spans="1:1">
       <c r="A8114">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8115" spans="1:1">
       <c r="A8115">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8116" spans="1:1">
       <c r="A8116">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8117" spans="1:1">
       <c r="A8117">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8118" spans="1:1">
       <c r="A8118">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8119" spans="1:1">
       <c r="A8119">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8120" spans="1:1">
       <c r="A8120">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8121" spans="1:1">
       <c r="A8121">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8122" spans="1:1">
       <c r="A8122">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8123" spans="1:1">
       <c r="A8123">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8124" spans="1:1">
       <c r="A8124">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8125" spans="1:1">
       <c r="A8125">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8126" spans="1:1">
       <c r="A8126">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8127" spans="1:1">
       <c r="A8127">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8128" spans="1:1">
       <c r="A8128">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8129" spans="1:1">
       <c r="A8129">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8130" spans="1:1">
       <c r="A8130">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8131" spans="1:1">
       <c r="A8131">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8132" spans="1:1">
       <c r="A8132">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8133" spans="1:1">
       <c r="A8133">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8134" spans="1:1">
       <c r="A8134">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8135" spans="1:1">
       <c r="A8135">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8136" spans="1:1">
       <c r="A8136">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8137" spans="1:1">
       <c r="A8137">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8138" spans="1:1">
       <c r="A8138">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8139" spans="1:1">
       <c r="A8139">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8140" spans="1:1">
       <c r="A8140">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8141" spans="1:1">
       <c r="A8141">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8142" spans="1:1">
       <c r="A8142">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8143" spans="1:1">
       <c r="A8143">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8144" spans="1:1">
       <c r="A8144">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8145" spans="1:1">
       <c r="A8145">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8146" spans="1:1">
       <c r="A8146">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8147" spans="1:1">
       <c r="A8147">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8148" spans="1:1">
       <c r="A8148">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8149" spans="1:1">
       <c r="A8149">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8150" spans="1:1">
       <c r="A8150">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8151" spans="1:1">
       <c r="A8151">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8152" spans="1:1">
       <c r="A8152">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8153" spans="1:1">
       <c r="A8153">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8154" spans="1:1">
       <c r="A8154">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8155" spans="1:1">
       <c r="A8155">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8156" spans="1:1">
       <c r="A8156">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8157" spans="1:1">
       <c r="A8157">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8158" spans="1:1">
       <c r="A8158">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8159" spans="1:1">
       <c r="A8159">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8160" spans="1:1">
       <c r="A8160">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8161" spans="1:1">
       <c r="A8161">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8162" spans="1:1">
@@ -41229,402 +41229,402 @@
     </row>
     <row r="8172" spans="1:1">
       <c r="A8172">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8173" spans="1:1">
       <c r="A8173">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8174" spans="1:1">
       <c r="A8174">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8175" spans="1:1">
       <c r="A8175">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8176" spans="1:1">
       <c r="A8176">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8177" spans="1:1">
       <c r="A8177">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8178" spans="1:1">
       <c r="A8178">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8179" spans="1:1">
       <c r="A8179">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8180" spans="1:1">
       <c r="A8180">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8181" spans="1:1">
       <c r="A8181">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8182" spans="1:1">
       <c r="A8182">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8183" spans="1:1">
       <c r="A8183">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8184" spans="1:1">
       <c r="A8184">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8185" spans="1:1">
       <c r="A8185">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8186" spans="1:1">
       <c r="A8186">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8187" spans="1:1">
       <c r="A8187">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8188" spans="1:1">
       <c r="A8188">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8189" spans="1:1">
       <c r="A8189">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8190" spans="1:1">
       <c r="A8190">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8191" spans="1:1">
       <c r="A8191">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8192" spans="1:1">
       <c r="A8192">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8193" spans="1:1">
       <c r="A8193">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8194" spans="1:1">
       <c r="A8194">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8195" spans="1:1">
       <c r="A8195">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8196" spans="1:1">
       <c r="A8196">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8197" spans="1:1">
       <c r="A8197">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8198" spans="1:1">
       <c r="A8198">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8199" spans="1:1">
       <c r="A8199">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8200" spans="1:1">
       <c r="A8200">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8201" spans="1:1">
       <c r="A8201">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8202" spans="1:1">
       <c r="A8202">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8203" spans="1:1">
       <c r="A8203">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8204" spans="1:1">
       <c r="A8204">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8205" spans="1:1">
       <c r="A8205">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8206" spans="1:1">
       <c r="A8206">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8207" spans="1:1">
       <c r="A8207">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8208" spans="1:1">
       <c r="A8208">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8209" spans="1:1">
       <c r="A8209">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8210" spans="1:1">
       <c r="A8210">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8211" spans="1:1">
       <c r="A8211">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8212" spans="1:1">
       <c r="A8212">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8213" spans="1:1">
       <c r="A8213">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8214" spans="1:1">
       <c r="A8214">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8215" spans="1:1">
       <c r="A8215">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8216" spans="1:1">
       <c r="A8216">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8217" spans="1:1">
       <c r="A8217">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8218" spans="1:1">
       <c r="A8218">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8219" spans="1:1">
       <c r="A8219">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8220" spans="1:1">
       <c r="A8220">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8221" spans="1:1">
       <c r="A8221">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8222" spans="1:1">
       <c r="A8222">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8223" spans="1:1">
       <c r="A8223">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8224" spans="1:1">
       <c r="A8224">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8225" spans="1:1">
       <c r="A8225">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8226" spans="1:1">
       <c r="A8226">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8227" spans="1:1">
       <c r="A8227">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8228" spans="1:1">
       <c r="A8228">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8229" spans="1:1">
       <c r="A8229">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8230" spans="1:1">
       <c r="A8230">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8231" spans="1:1">
       <c r="A8231">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8232" spans="1:1">
       <c r="A8232">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8233" spans="1:1">
       <c r="A8233">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8234" spans="1:1">
       <c r="A8234">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8235" spans="1:1">
       <c r="A8235">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8236" spans="1:1">
       <c r="A8236">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8237" spans="1:1">
       <c r="A8237">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8238" spans="1:1">
       <c r="A8238">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8239" spans="1:1">
       <c r="A8239">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8240" spans="1:1">
       <c r="A8240">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8241" spans="1:1">
       <c r="A8241">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8242" spans="1:1">
       <c r="A8242">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8243" spans="1:1">
       <c r="A8243">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8244" spans="1:1">
       <c r="A8244">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8245" spans="1:1">
       <c r="A8245">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8246" spans="1:1">
       <c r="A8246">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8247" spans="1:1">
       <c r="A8247">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8248" spans="1:1">
       <c r="A8248">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8249" spans="1:1">
       <c r="A8249">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8250" spans="1:1">
       <c r="A8250">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8251" spans="1:1">
       <c r="A8251">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8252" spans="1:1">
@@ -41679,52 +41679,52 @@
     </row>
     <row r="8262" spans="1:1">
       <c r="A8262">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8263" spans="1:1">
       <c r="A8263">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8264" spans="1:1">
       <c r="A8264">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8265" spans="1:1">
       <c r="A8265">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8266" spans="1:1">
       <c r="A8266">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8267" spans="1:1">
       <c r="A8267">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8268" spans="1:1">
       <c r="A8268">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8269" spans="1:1">
       <c r="A8269">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8270" spans="1:1">
       <c r="A8270">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8271" spans="1:1">
       <c r="A8271">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8272" spans="1:1">
@@ -41829,147 +41829,147 @@
     </row>
     <row r="8292" spans="1:1">
       <c r="A8292">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8293" spans="1:1">
       <c r="A8293">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8294" spans="1:1">
       <c r="A8294">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8295" spans="1:1">
       <c r="A8295">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8296" spans="1:1">
       <c r="A8296">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8297" spans="1:1">
       <c r="A8297">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8298" spans="1:1">
       <c r="A8298">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8299" spans="1:1">
       <c r="A8299">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8300" spans="1:1">
       <c r="A8300">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8301" spans="1:1">
       <c r="A8301">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8302" spans="1:1">
       <c r="A8302">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8303" spans="1:1">
       <c r="A8303">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8304" spans="1:1">
       <c r="A8304">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8305" spans="1:1">
       <c r="A8305">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8306" spans="1:1">
       <c r="A8306">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8307" spans="1:1">
       <c r="A8307">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8308" spans="1:1">
       <c r="A8308">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8309" spans="1:1">
       <c r="A8309">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8310" spans="1:1">
       <c r="A8310">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8311" spans="1:1">
       <c r="A8311">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8312" spans="1:1">
       <c r="A8312">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8313" spans="1:1">
       <c r="A8313">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8314" spans="1:1">
       <c r="A8314">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8315" spans="1:1">
       <c r="A8315">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8316" spans="1:1">
       <c r="A8316">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8317" spans="1:1">
       <c r="A8317">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8318" spans="1:1">
       <c r="A8318">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8319" spans="1:1">
       <c r="A8319">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8320" spans="1:1">
       <c r="A8320">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8321" spans="1:1">
@@ -42129,532 +42129,532 @@
     </row>
     <row r="8352" spans="1:1">
       <c r="A8352">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8353" spans="1:1">
       <c r="A8353">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8354" spans="1:1">
       <c r="A8354">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8355" spans="1:1">
       <c r="A8355">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8356" spans="1:1">
       <c r="A8356">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8357" spans="1:1">
       <c r="A8357">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8358" spans="1:1">
       <c r="A8358">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8359" spans="1:1">
       <c r="A8359">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8360" spans="1:1">
       <c r="A8360">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8361" spans="1:1">
       <c r="A8361">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8362" spans="1:1">
       <c r="A8362">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8363" spans="1:1">
       <c r="A8363">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8364" spans="1:1">
       <c r="A8364">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8365" spans="1:1">
       <c r="A8365">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8366" spans="1:1">
       <c r="A8366">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8367" spans="1:1">
       <c r="A8367">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8368" spans="1:1">
       <c r="A8368">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8369" spans="1:1">
       <c r="A8369">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8370" spans="1:1">
       <c r="A8370">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8371" spans="1:1">
       <c r="A8371">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8372" spans="1:1">
       <c r="A8372">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8373" spans="1:1">
       <c r="A8373">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8374" spans="1:1">
       <c r="A8374">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8375" spans="1:1">
       <c r="A8375">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8376" spans="1:1">
       <c r="A8376">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8377" spans="1:1">
       <c r="A8377">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8378" spans="1:1">
       <c r="A8378">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8379" spans="1:1">
       <c r="A8379">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8380" spans="1:1">
       <c r="A8380">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8381" spans="1:1">
       <c r="A8381">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8382" spans="1:1">
       <c r="A8382">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8383" spans="1:1">
       <c r="A8383">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8384" spans="1:1">
       <c r="A8384">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8385" spans="1:1">
       <c r="A8385">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8386" spans="1:1">
       <c r="A8386">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8387" spans="1:1">
       <c r="A8387">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8388" spans="1:1">
       <c r="A8388">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8389" spans="1:1">
       <c r="A8389">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8390" spans="1:1">
       <c r="A8390">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8391" spans="1:1">
       <c r="A8391">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8392" spans="1:1">
       <c r="A8392">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8393" spans="1:1">
       <c r="A8393">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8394" spans="1:1">
       <c r="A8394">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8395" spans="1:1">
       <c r="A8395">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8396" spans="1:1">
       <c r="A8396">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8397" spans="1:1">
       <c r="A8397">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8398" spans="1:1">
       <c r="A8398">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8399" spans="1:1">
       <c r="A8399">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8400" spans="1:1">
       <c r="A8400">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8401" spans="1:1">
       <c r="A8401">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8402" spans="1:1">
       <c r="A8402">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8403" spans="1:1">
       <c r="A8403">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8404" spans="1:1">
       <c r="A8404">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8405" spans="1:1">
       <c r="A8405">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8406" spans="1:1">
       <c r="A8406">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8407" spans="1:1">
       <c r="A8407">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8408" spans="1:1">
       <c r="A8408">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8409" spans="1:1">
       <c r="A8409">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8410" spans="1:1">
       <c r="A8410">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8411" spans="1:1">
       <c r="A8411">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8412" spans="1:1">
       <c r="A8412">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8413" spans="1:1">
       <c r="A8413">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8414" spans="1:1">
       <c r="A8414">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8415" spans="1:1">
       <c r="A8415">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8416" spans="1:1">
       <c r="A8416">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8417" spans="1:1">
       <c r="A8417">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8418" spans="1:1">
       <c r="A8418">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8419" spans="1:1">
       <c r="A8419">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8420" spans="1:1">
       <c r="A8420">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8421" spans="1:1">
       <c r="A8421">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8422" spans="1:1">
       <c r="A8422">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8423" spans="1:1">
       <c r="A8423">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8424" spans="1:1">
       <c r="A8424">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8425" spans="1:1">
       <c r="A8425">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8426" spans="1:1">
       <c r="A8426">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8427" spans="1:1">
       <c r="A8427">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8428" spans="1:1">
       <c r="A8428">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8429" spans="1:1">
       <c r="A8429">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8430" spans="1:1">
       <c r="A8430">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8431" spans="1:1">
       <c r="A8431">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8432" spans="1:1">
       <c r="A8432">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8433" spans="1:1">
       <c r="A8433">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8434" spans="1:1">
       <c r="A8434">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8435" spans="1:1">
       <c r="A8435">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8436" spans="1:1">
       <c r="A8436">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8437" spans="1:1">
       <c r="A8437">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8438" spans="1:1">
       <c r="A8438">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8439" spans="1:1">
       <c r="A8439">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8440" spans="1:1">
       <c r="A8440">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8441" spans="1:1">
       <c r="A8441">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8442" spans="1:1">
       <c r="A8442">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8443" spans="1:1">
       <c r="A8443">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8444" spans="1:1">
       <c r="A8444">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8445" spans="1:1">
       <c r="A8445">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8446" spans="1:1">
       <c r="A8446">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8447" spans="1:1">
       <c r="A8447">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8448" spans="1:1">
       <c r="A8448">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8449" spans="1:1">
       <c r="A8449">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8450" spans="1:1">
       <c r="A8450">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8451" spans="1:1">
       <c r="A8451">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8452" spans="1:1">
       <c r="A8452">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8453" spans="1:1">
       <c r="A8453">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8454" spans="1:1">
       <c r="A8454">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8455" spans="1:1">
       <c r="A8455">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8456" spans="1:1">
       <c r="A8456">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8457" spans="1:1">
       <c r="A8457">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8458" spans="1:1">
@@ -48129,587 +48129,587 @@
     </row>
     <row r="9552" spans="1:1">
       <c r="A9552">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9553" spans="1:1">
       <c r="A9553">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9554" spans="1:1">
       <c r="A9554">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9555" spans="1:1">
       <c r="A9555">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9556" spans="1:1">
       <c r="A9556">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9557" spans="1:1">
       <c r="A9557">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9558" spans="1:1">
       <c r="A9558">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9559" spans="1:1">
       <c r="A9559">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9560" spans="1:1">
       <c r="A9560">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9561" spans="1:1">
       <c r="A9561">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9562" spans="1:1">
       <c r="A9562">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9563" spans="1:1">
       <c r="A9563">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9564" spans="1:1">
       <c r="A9564">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9565" spans="1:1">
       <c r="A9565">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9566" spans="1:1">
       <c r="A9566">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9567" spans="1:1">
       <c r="A9567">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9568" spans="1:1">
       <c r="A9568">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9569" spans="1:1">
       <c r="A9569">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9570" spans="1:1">
       <c r="A9570">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9571" spans="1:1">
       <c r="A9571">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9572" spans="1:1">
       <c r="A9572">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9573" spans="1:1">
       <c r="A9573">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9574" spans="1:1">
       <c r="A9574">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9575" spans="1:1">
       <c r="A9575">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9576" spans="1:1">
       <c r="A9576">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9577" spans="1:1">
       <c r="A9577">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9578" spans="1:1">
       <c r="A9578">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9579" spans="1:1">
       <c r="A9579">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9580" spans="1:1">
       <c r="A9580">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9581" spans="1:1">
       <c r="A9581">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9582" spans="1:1">
       <c r="A9582">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9583" spans="1:1">
       <c r="A9583">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9584" spans="1:1">
       <c r="A9584">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9585" spans="1:1">
       <c r="A9585">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9586" spans="1:1">
       <c r="A9586">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9587" spans="1:1">
       <c r="A9587">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9588" spans="1:1">
       <c r="A9588">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9589" spans="1:1">
       <c r="A9589">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9590" spans="1:1">
       <c r="A9590">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9591" spans="1:1">
       <c r="A9591">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9592" spans="1:1">
       <c r="A9592">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9593" spans="1:1">
       <c r="A9593">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9594" spans="1:1">
       <c r="A9594">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9595" spans="1:1">
       <c r="A9595">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9596" spans="1:1">
       <c r="A9596">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9597" spans="1:1">
       <c r="A9597">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9598" spans="1:1">
       <c r="A9598">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9599" spans="1:1">
       <c r="A9599">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9600" spans="1:1">
       <c r="A9600">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9601" spans="1:1">
       <c r="A9601">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9602" spans="1:1">
       <c r="A9602">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9603" spans="1:1">
       <c r="A9603">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9604" spans="1:1">
       <c r="A9604">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9605" spans="1:1">
       <c r="A9605">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9606" spans="1:1">
       <c r="A9606">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9607" spans="1:1">
       <c r="A9607">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9608" spans="1:1">
       <c r="A9608">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9609" spans="1:1">
       <c r="A9609">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9610" spans="1:1">
       <c r="A9610">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9611" spans="1:1">
       <c r="A9611">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9612" spans="1:1">
       <c r="A9612">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9613" spans="1:1">
       <c r="A9613">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9614" spans="1:1">
       <c r="A9614">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9615" spans="1:1">
       <c r="A9615">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9616" spans="1:1">
       <c r="A9616">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9617" spans="1:1">
       <c r="A9617">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9618" spans="1:1">
       <c r="A9618">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9619" spans="1:1">
       <c r="A9619">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9620" spans="1:1">
       <c r="A9620">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9621" spans="1:1">
       <c r="A9621">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9622" spans="1:1">
       <c r="A9622">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9623" spans="1:1">
       <c r="A9623">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9624" spans="1:1">
       <c r="A9624">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9625" spans="1:1">
       <c r="A9625">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9626" spans="1:1">
       <c r="A9626">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9627" spans="1:1">
       <c r="A9627">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9628" spans="1:1">
       <c r="A9628">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9629" spans="1:1">
       <c r="A9629">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9630" spans="1:1">
       <c r="A9630">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9631" spans="1:1">
       <c r="A9631">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9632" spans="1:1">
       <c r="A9632">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9633" spans="1:1">
       <c r="A9633">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9634" spans="1:1">
       <c r="A9634">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9635" spans="1:1">
       <c r="A9635">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9636" spans="1:1">
       <c r="A9636">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9637" spans="1:1">
       <c r="A9637">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9638" spans="1:1">
       <c r="A9638">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9639" spans="1:1">
       <c r="A9639">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9640" spans="1:1">
       <c r="A9640">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9641" spans="1:1">
       <c r="A9641">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9642" spans="1:1">
       <c r="A9642">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9643" spans="1:1">
       <c r="A9643">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9644" spans="1:1">
       <c r="A9644">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9645" spans="1:1">
       <c r="A9645">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9646" spans="1:1">
       <c r="A9646">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9647" spans="1:1">
       <c r="A9647">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9648" spans="1:1">
       <c r="A9648">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9649" spans="1:1">
       <c r="A9649">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9650" spans="1:1">
       <c r="A9650">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9651" spans="1:1">
       <c r="A9651">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9652" spans="1:1">
       <c r="A9652">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9653" spans="1:1">
       <c r="A9653">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9654" spans="1:1">
       <c r="A9654">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9655" spans="1:1">
       <c r="A9655">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9656" spans="1:1">
       <c r="A9656">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9657" spans="1:1">
       <c r="A9657">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9658" spans="1:1">
       <c r="A9658">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9659" spans="1:1">
       <c r="A9659">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9660" spans="1:1">
       <c r="A9660">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9661" spans="1:1">
       <c r="A9661">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9662" spans="1:1">
       <c r="A9662">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9663" spans="1:1">
       <c r="A9663">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9664" spans="1:1">
       <c r="A9664">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9665" spans="1:1">
       <c r="A9665">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9666" spans="1:1">
       <c r="A9666">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9667" spans="1:1">
       <c r="A9667">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9668" spans="1:1">
       <c r="A9668">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9669" spans="1:1">

--- a/StROBe/Data/EV_load_profile.xlsx
+++ b/StROBe/Data/EV_load_profile.xlsx
@@ -3629,77 +3629,77 @@
     </row>
     <row r="652" spans="1:1">
       <c r="A652">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:1">
@@ -4329,192 +4329,192 @@
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:1">
@@ -4729,77 +4729,77 @@
     </row>
     <row r="872" spans="1:1">
       <c r="A872">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:1">
@@ -6779,337 +6779,337 @@
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
@@ -11579,72 +11579,72 @@
     </row>
     <row r="2242" spans="1:1">
       <c r="A2242">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2243" spans="1:1">
       <c r="A2243">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2244" spans="1:1">
       <c r="A2244">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2245" spans="1:1">
       <c r="A2245">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2246" spans="1:1">
       <c r="A2246">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2247" spans="1:1">
       <c r="A2247">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2248" spans="1:1">
       <c r="A2248">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2249" spans="1:1">
       <c r="A2249">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2250" spans="1:1">
       <c r="A2250">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2251" spans="1:1">
       <c r="A2251">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2252" spans="1:1">
       <c r="A2252">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2253" spans="1:1">
       <c r="A2253">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2254" spans="1:1">
       <c r="A2254">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2255" spans="1:1">
       <c r="A2255">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2256" spans="1:1">
@@ -13479,647 +13479,647 @@
     </row>
     <row r="2622" spans="1:1">
       <c r="A2622">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2623" spans="1:1">
       <c r="A2623">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2624" spans="1:1">
       <c r="A2624">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2625" spans="1:1">
       <c r="A2625">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2626" spans="1:1">
       <c r="A2626">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2627" spans="1:1">
       <c r="A2627">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2628" spans="1:1">
       <c r="A2628">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2629" spans="1:1">
       <c r="A2629">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2630" spans="1:1">
       <c r="A2630">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2631" spans="1:1">
       <c r="A2631">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2632" spans="1:1">
       <c r="A2632">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2633" spans="1:1">
       <c r="A2633">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2634" spans="1:1">
       <c r="A2634">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2635" spans="1:1">
       <c r="A2635">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2636" spans="1:1">
       <c r="A2636">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2637" spans="1:1">
       <c r="A2637">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2638" spans="1:1">
       <c r="A2638">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2639" spans="1:1">
       <c r="A2639">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2640" spans="1:1">
       <c r="A2640">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2641" spans="1:1">
       <c r="A2641">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2642" spans="1:1">
       <c r="A2642">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2643" spans="1:1">
       <c r="A2643">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2644" spans="1:1">
       <c r="A2644">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2645" spans="1:1">
       <c r="A2645">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2646" spans="1:1">
       <c r="A2646">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2647" spans="1:1">
       <c r="A2647">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2648" spans="1:1">
       <c r="A2648">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2649" spans="1:1">
       <c r="A2649">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2650" spans="1:1">
       <c r="A2650">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2651" spans="1:1">
       <c r="A2651">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2652" spans="1:1">
       <c r="A2652">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2653" spans="1:1">
       <c r="A2653">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2654" spans="1:1">
       <c r="A2654">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2655" spans="1:1">
       <c r="A2655">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2656" spans="1:1">
       <c r="A2656">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2657" spans="1:1">
       <c r="A2657">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2658" spans="1:1">
       <c r="A2658">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2659" spans="1:1">
       <c r="A2659">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2660" spans="1:1">
       <c r="A2660">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2661" spans="1:1">
       <c r="A2661">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2662" spans="1:1">
       <c r="A2662">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2663" spans="1:1">
       <c r="A2663">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2664" spans="1:1">
       <c r="A2664">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2665" spans="1:1">
       <c r="A2665">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2666" spans="1:1">
       <c r="A2666">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2667" spans="1:1">
       <c r="A2667">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2668" spans="1:1">
       <c r="A2668">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2669" spans="1:1">
       <c r="A2669">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2670" spans="1:1">
       <c r="A2670">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2671" spans="1:1">
       <c r="A2671">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2672" spans="1:1">
       <c r="A2672">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2673" spans="1:1">
       <c r="A2673">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2674" spans="1:1">
       <c r="A2674">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2675" spans="1:1">
       <c r="A2675">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2676" spans="1:1">
       <c r="A2676">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2677" spans="1:1">
       <c r="A2677">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2678" spans="1:1">
       <c r="A2678">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2679" spans="1:1">
       <c r="A2679">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2680" spans="1:1">
       <c r="A2680">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2681" spans="1:1">
       <c r="A2681">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2682" spans="1:1">
       <c r="A2682">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2683" spans="1:1">
       <c r="A2683">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2684" spans="1:1">
       <c r="A2684">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2685" spans="1:1">
       <c r="A2685">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2686" spans="1:1">
       <c r="A2686">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2687" spans="1:1">
       <c r="A2687">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2688" spans="1:1">
       <c r="A2688">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2689" spans="1:1">
       <c r="A2689">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2690" spans="1:1">
       <c r="A2690">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2691" spans="1:1">
       <c r="A2691">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2692" spans="1:1">
       <c r="A2692">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2693" spans="1:1">
       <c r="A2693">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2694" spans="1:1">
       <c r="A2694">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2695" spans="1:1">
       <c r="A2695">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2696" spans="1:1">
       <c r="A2696">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2697" spans="1:1">
       <c r="A2697">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2698" spans="1:1">
       <c r="A2698">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2699" spans="1:1">
       <c r="A2699">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2700" spans="1:1">
       <c r="A2700">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2701" spans="1:1">
       <c r="A2701">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2702" spans="1:1">
       <c r="A2702">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2703" spans="1:1">
       <c r="A2703">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2704" spans="1:1">
       <c r="A2704">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2705" spans="1:1">
       <c r="A2705">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2706" spans="1:1">
       <c r="A2706">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2707" spans="1:1">
       <c r="A2707">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2708" spans="1:1">
       <c r="A2708">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2709" spans="1:1">
       <c r="A2709">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2710" spans="1:1">
       <c r="A2710">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2711" spans="1:1">
       <c r="A2711">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2712" spans="1:1">
       <c r="A2712">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2713" spans="1:1">
       <c r="A2713">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2714" spans="1:1">
       <c r="A2714">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2715" spans="1:1">
       <c r="A2715">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2716" spans="1:1">
       <c r="A2716">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2717" spans="1:1">
       <c r="A2717">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2718" spans="1:1">
       <c r="A2718">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2719" spans="1:1">
       <c r="A2719">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2720" spans="1:1">
       <c r="A2720">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2721" spans="1:1">
       <c r="A2721">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2722" spans="1:1">
       <c r="A2722">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2723" spans="1:1">
       <c r="A2723">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2724" spans="1:1">
       <c r="A2724">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2725" spans="1:1">
       <c r="A2725">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2726" spans="1:1">
       <c r="A2726">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2727" spans="1:1">
       <c r="A2727">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2728" spans="1:1">
       <c r="A2728">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2729" spans="1:1">
       <c r="A2729">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730" spans="1:1">
       <c r="A2730">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2731" spans="1:1">
       <c r="A2731">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2732" spans="1:1">
       <c r="A2732">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2733" spans="1:1">
       <c r="A2733">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2734" spans="1:1">
       <c r="A2734">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2735" spans="1:1">
       <c r="A2735">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2736" spans="1:1">
       <c r="A2736">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2737" spans="1:1">
       <c r="A2737">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2738" spans="1:1">
       <c r="A2738">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2739" spans="1:1">
       <c r="A2739">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2740" spans="1:1">
       <c r="A2740">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2741" spans="1:1">
       <c r="A2741">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742" spans="1:1">
       <c r="A2742">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2743" spans="1:1">
       <c r="A2743">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2744" spans="1:1">
       <c r="A2744">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2745" spans="1:1">
       <c r="A2745">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2746" spans="1:1">
       <c r="A2746">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2747" spans="1:1">
       <c r="A2747">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2748" spans="1:1">
       <c r="A2748">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2749" spans="1:1">
       <c r="A2749">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2750" spans="1:1">
       <c r="A2750">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2751" spans="1:1">
@@ -32529,302 +32529,302 @@
     </row>
     <row r="6432" spans="1:1">
       <c r="A6432">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6433" spans="1:1">
       <c r="A6433">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6434" spans="1:1">
       <c r="A6434">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6435" spans="1:1">
       <c r="A6435">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6436" spans="1:1">
       <c r="A6436">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6437" spans="1:1">
       <c r="A6437">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6438" spans="1:1">
       <c r="A6438">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6439" spans="1:1">
       <c r="A6439">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6440" spans="1:1">
       <c r="A6440">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6441" spans="1:1">
       <c r="A6441">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6442" spans="1:1">
       <c r="A6442">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6443" spans="1:1">
       <c r="A6443">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6444" spans="1:1">
       <c r="A6444">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6445" spans="1:1">
       <c r="A6445">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6446" spans="1:1">
       <c r="A6446">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6447" spans="1:1">
       <c r="A6447">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6448" spans="1:1">
       <c r="A6448">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6449" spans="1:1">
       <c r="A6449">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6450" spans="1:1">
       <c r="A6450">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6451" spans="1:1">
       <c r="A6451">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6452" spans="1:1">
       <c r="A6452">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6453" spans="1:1">
       <c r="A6453">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6454" spans="1:1">
       <c r="A6454">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6455" spans="1:1">
       <c r="A6455">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6456" spans="1:1">
       <c r="A6456">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6457" spans="1:1">
       <c r="A6457">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6458" spans="1:1">
       <c r="A6458">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6459" spans="1:1">
       <c r="A6459">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6460" spans="1:1">
       <c r="A6460">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6461" spans="1:1">
       <c r="A6461">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6462" spans="1:1">
       <c r="A6462">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6463" spans="1:1">
       <c r="A6463">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6464" spans="1:1">
       <c r="A6464">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6465" spans="1:1">
       <c r="A6465">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6466" spans="1:1">
       <c r="A6466">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6467" spans="1:1">
       <c r="A6467">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6468" spans="1:1">
       <c r="A6468">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6469" spans="1:1">
       <c r="A6469">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6470" spans="1:1">
       <c r="A6470">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6471" spans="1:1">
       <c r="A6471">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6472" spans="1:1">
       <c r="A6472">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6473" spans="1:1">
       <c r="A6473">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6474" spans="1:1">
       <c r="A6474">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6475" spans="1:1">
       <c r="A6475">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6476" spans="1:1">
       <c r="A6476">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6477" spans="1:1">
       <c r="A6477">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6478" spans="1:1">
       <c r="A6478">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6479" spans="1:1">
       <c r="A6479">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6480" spans="1:1">
       <c r="A6480">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6481" spans="1:1">
       <c r="A6481">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6482" spans="1:1">
       <c r="A6482">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6483" spans="1:1">
       <c r="A6483">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6484" spans="1:1">
       <c r="A6484">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6485" spans="1:1">
       <c r="A6485">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6486" spans="1:1">
       <c r="A6486">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6487" spans="1:1">
       <c r="A6487">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6488" spans="1:1">
       <c r="A6488">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6489" spans="1:1">
       <c r="A6489">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6490" spans="1:1">
       <c r="A6490">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6491" spans="1:1">
       <c r="A6491">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6492" spans="1:1">
@@ -33129,207 +33129,207 @@
     </row>
     <row r="6552" spans="1:1">
       <c r="A6552">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6553" spans="1:1">
       <c r="A6553">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6554" spans="1:1">
       <c r="A6554">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6555" spans="1:1">
       <c r="A6555">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6556" spans="1:1">
       <c r="A6556">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6557" spans="1:1">
       <c r="A6557">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6558" spans="1:1">
       <c r="A6558">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6559" spans="1:1">
       <c r="A6559">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6560" spans="1:1">
       <c r="A6560">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6561" spans="1:1">
       <c r="A6561">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6562" spans="1:1">
       <c r="A6562">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6563" spans="1:1">
       <c r="A6563">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6564" spans="1:1">
       <c r="A6564">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6565" spans="1:1">
       <c r="A6565">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6566" spans="1:1">
       <c r="A6566">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6567" spans="1:1">
       <c r="A6567">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6568" spans="1:1">
       <c r="A6568">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6569" spans="1:1">
       <c r="A6569">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6570" spans="1:1">
       <c r="A6570">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6571" spans="1:1">
       <c r="A6571">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6572" spans="1:1">
       <c r="A6572">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6573" spans="1:1">
       <c r="A6573">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6574" spans="1:1">
       <c r="A6574">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6575" spans="1:1">
       <c r="A6575">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6576" spans="1:1">
       <c r="A6576">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6577" spans="1:1">
       <c r="A6577">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6578" spans="1:1">
       <c r="A6578">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6579" spans="1:1">
       <c r="A6579">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6580" spans="1:1">
       <c r="A6580">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6581" spans="1:1">
       <c r="A6581">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6582" spans="1:1">
       <c r="A6582">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6583" spans="1:1">
       <c r="A6583">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6584" spans="1:1">
       <c r="A6584">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6585" spans="1:1">
       <c r="A6585">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6586" spans="1:1">
       <c r="A6586">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6587" spans="1:1">
       <c r="A6587">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6588" spans="1:1">
       <c r="A6588">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6589" spans="1:1">
       <c r="A6589">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6590" spans="1:1">
       <c r="A6590">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6591" spans="1:1">
       <c r="A6591">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6592" spans="1:1">
       <c r="A6592">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6593" spans="1:1">
@@ -33429,32 +33429,32 @@
     </row>
     <row r="6612" spans="1:1">
       <c r="A6612">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6613" spans="1:1">
       <c r="A6613">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6614" spans="1:1">
       <c r="A6614">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6615" spans="1:1">
       <c r="A6615">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6616" spans="1:1">
       <c r="A6616">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6617" spans="1:1">
       <c r="A6617">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6618" spans="1:1">
@@ -34179,102 +34179,102 @@
     </row>
     <row r="6762" spans="1:1">
       <c r="A6762">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6763" spans="1:1">
       <c r="A6763">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6764" spans="1:1">
       <c r="A6764">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6765" spans="1:1">
       <c r="A6765">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6766" spans="1:1">
       <c r="A6766">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6767" spans="1:1">
       <c r="A6767">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6768" spans="1:1">
       <c r="A6768">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6769" spans="1:1">
       <c r="A6769">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6770" spans="1:1">
       <c r="A6770">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6771" spans="1:1">
       <c r="A6771">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6772" spans="1:1">
       <c r="A6772">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6773" spans="1:1">
       <c r="A6773">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6774" spans="1:1">
       <c r="A6774">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6775" spans="1:1">
       <c r="A6775">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6776" spans="1:1">
       <c r="A6776">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6777" spans="1:1">
       <c r="A6777">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6778" spans="1:1">
       <c r="A6778">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6779" spans="1:1">
       <c r="A6779">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6780" spans="1:1">
       <c r="A6780">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6781" spans="1:1">
       <c r="A6781">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6782" spans="1:1">
@@ -34679,282 +34679,282 @@
     </row>
     <row r="6862" spans="1:1">
       <c r="A6862">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6863" spans="1:1">
       <c r="A6863">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6864" spans="1:1">
       <c r="A6864">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6865" spans="1:1">
       <c r="A6865">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6866" spans="1:1">
       <c r="A6866">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6867" spans="1:1">
       <c r="A6867">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6868" spans="1:1">
       <c r="A6868">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6869" spans="1:1">
       <c r="A6869">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6870" spans="1:1">
       <c r="A6870">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6871" spans="1:1">
       <c r="A6871">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6872" spans="1:1">
       <c r="A6872">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6873" spans="1:1">
       <c r="A6873">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6874" spans="1:1">
       <c r="A6874">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6875" spans="1:1">
       <c r="A6875">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6876" spans="1:1">
       <c r="A6876">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6877" spans="1:1">
       <c r="A6877">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6878" spans="1:1">
       <c r="A6878">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6879" spans="1:1">
       <c r="A6879">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6880" spans="1:1">
       <c r="A6880">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6881" spans="1:1">
       <c r="A6881">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6882" spans="1:1">
       <c r="A6882">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6883" spans="1:1">
       <c r="A6883">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6884" spans="1:1">
       <c r="A6884">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6885" spans="1:1">
       <c r="A6885">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6886" spans="1:1">
       <c r="A6886">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6887" spans="1:1">
       <c r="A6887">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6888" spans="1:1">
       <c r="A6888">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6889" spans="1:1">
       <c r="A6889">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6890" spans="1:1">
       <c r="A6890">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6891" spans="1:1">
       <c r="A6891">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6892" spans="1:1">
       <c r="A6892">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6893" spans="1:1">
       <c r="A6893">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6894" spans="1:1">
       <c r="A6894">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6895" spans="1:1">
       <c r="A6895">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6896" spans="1:1">
       <c r="A6896">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6897" spans="1:1">
       <c r="A6897">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6898" spans="1:1">
       <c r="A6898">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6899" spans="1:1">
       <c r="A6899">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6900" spans="1:1">
       <c r="A6900">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6901" spans="1:1">
       <c r="A6901">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6902" spans="1:1">
       <c r="A6902">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6903" spans="1:1">
       <c r="A6903">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6904" spans="1:1">
       <c r="A6904">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6905" spans="1:1">
       <c r="A6905">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6906" spans="1:1">
       <c r="A6906">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6907" spans="1:1">
       <c r="A6907">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6908" spans="1:1">
       <c r="A6908">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6909" spans="1:1">
       <c r="A6909">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6910" spans="1:1">
       <c r="A6910">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6911" spans="1:1">
       <c r="A6911">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6912" spans="1:1">
       <c r="A6912">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6913" spans="1:1">
       <c r="A6913">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6914" spans="1:1">
       <c r="A6914">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6915" spans="1:1">
       <c r="A6915">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6916" spans="1:1">
       <c r="A6916">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6917" spans="1:1">
       <c r="A6917">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6918" spans="1:1">
@@ -41179,52 +41179,52 @@
     </row>
     <row r="8162" spans="1:1">
       <c r="A8162">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8163" spans="1:1">
       <c r="A8163">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8164" spans="1:1">
       <c r="A8164">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8165" spans="1:1">
       <c r="A8165">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8166" spans="1:1">
       <c r="A8166">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8167" spans="1:1">
       <c r="A8167">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8168" spans="1:1">
       <c r="A8168">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8169" spans="1:1">
       <c r="A8169">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8170" spans="1:1">
       <c r="A8170">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8171" spans="1:1">
       <c r="A8171">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8172" spans="1:1">
@@ -41629,52 +41629,52 @@
     </row>
     <row r="8252" spans="1:1">
       <c r="A8252">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8253" spans="1:1">
       <c r="A8253">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8254" spans="1:1">
       <c r="A8254">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8255" spans="1:1">
       <c r="A8255">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8256" spans="1:1">
       <c r="A8256">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8257" spans="1:1">
       <c r="A8257">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8258" spans="1:1">
       <c r="A8258">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8259" spans="1:1">
       <c r="A8259">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8260" spans="1:1">
       <c r="A8260">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8261" spans="1:1">
       <c r="A8261">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8262" spans="1:1">
@@ -42129,532 +42129,532 @@
     </row>
     <row r="8352" spans="1:1">
       <c r="A8352">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8353" spans="1:1">
       <c r="A8353">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8354" spans="1:1">
       <c r="A8354">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8355" spans="1:1">
       <c r="A8355">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8356" spans="1:1">
       <c r="A8356">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8357" spans="1:1">
       <c r="A8357">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8358" spans="1:1">
       <c r="A8358">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8359" spans="1:1">
       <c r="A8359">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8360" spans="1:1">
       <c r="A8360">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8361" spans="1:1">
       <c r="A8361">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8362" spans="1:1">
       <c r="A8362">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8363" spans="1:1">
       <c r="A8363">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8364" spans="1:1">
       <c r="A8364">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8365" spans="1:1">
       <c r="A8365">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8366" spans="1:1">
       <c r="A8366">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8367" spans="1:1">
       <c r="A8367">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8368" spans="1:1">
       <c r="A8368">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8369" spans="1:1">
       <c r="A8369">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8370" spans="1:1">
       <c r="A8370">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8371" spans="1:1">
       <c r="A8371">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8372" spans="1:1">
       <c r="A8372">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8373" spans="1:1">
       <c r="A8373">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8374" spans="1:1">
       <c r="A8374">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8375" spans="1:1">
       <c r="A8375">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8376" spans="1:1">
       <c r="A8376">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8377" spans="1:1">
       <c r="A8377">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8378" spans="1:1">
       <c r="A8378">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8379" spans="1:1">
       <c r="A8379">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8380" spans="1:1">
       <c r="A8380">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8381" spans="1:1">
       <c r="A8381">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8382" spans="1:1">
       <c r="A8382">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8383" spans="1:1">
       <c r="A8383">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8384" spans="1:1">
       <c r="A8384">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8385" spans="1:1">
       <c r="A8385">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8386" spans="1:1">
       <c r="A8386">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8387" spans="1:1">
       <c r="A8387">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8388" spans="1:1">
       <c r="A8388">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8389" spans="1:1">
       <c r="A8389">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8390" spans="1:1">
       <c r="A8390">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8391" spans="1:1">
       <c r="A8391">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8392" spans="1:1">
       <c r="A8392">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8393" spans="1:1">
       <c r="A8393">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8394" spans="1:1">
       <c r="A8394">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8395" spans="1:1">
       <c r="A8395">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8396" spans="1:1">
       <c r="A8396">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8397" spans="1:1">
       <c r="A8397">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8398" spans="1:1">
       <c r="A8398">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8399" spans="1:1">
       <c r="A8399">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8400" spans="1:1">
       <c r="A8400">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8401" spans="1:1">
       <c r="A8401">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8402" spans="1:1">
       <c r="A8402">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8403" spans="1:1">
       <c r="A8403">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8404" spans="1:1">
       <c r="A8404">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8405" spans="1:1">
       <c r="A8405">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8406" spans="1:1">
       <c r="A8406">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8407" spans="1:1">
       <c r="A8407">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8408" spans="1:1">
       <c r="A8408">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8409" spans="1:1">
       <c r="A8409">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8410" spans="1:1">
       <c r="A8410">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8411" spans="1:1">
       <c r="A8411">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8412" spans="1:1">
       <c r="A8412">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8413" spans="1:1">
       <c r="A8413">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8414" spans="1:1">
       <c r="A8414">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8415" spans="1:1">
       <c r="A8415">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8416" spans="1:1">
       <c r="A8416">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8417" spans="1:1">
       <c r="A8417">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8418" spans="1:1">
       <c r="A8418">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8419" spans="1:1">
       <c r="A8419">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8420" spans="1:1">
       <c r="A8420">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8421" spans="1:1">
       <c r="A8421">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8422" spans="1:1">
       <c r="A8422">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8423" spans="1:1">
       <c r="A8423">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8424" spans="1:1">
       <c r="A8424">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8425" spans="1:1">
       <c r="A8425">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8426" spans="1:1">
       <c r="A8426">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8427" spans="1:1">
       <c r="A8427">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8428" spans="1:1">
       <c r="A8428">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8429" spans="1:1">
       <c r="A8429">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8430" spans="1:1">
       <c r="A8430">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8431" spans="1:1">
       <c r="A8431">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8432" spans="1:1">
       <c r="A8432">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8433" spans="1:1">
       <c r="A8433">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8434" spans="1:1">
       <c r="A8434">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8435" spans="1:1">
       <c r="A8435">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8436" spans="1:1">
       <c r="A8436">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8437" spans="1:1">
       <c r="A8437">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8438" spans="1:1">
       <c r="A8438">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8439" spans="1:1">
       <c r="A8439">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8440" spans="1:1">
       <c r="A8440">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8441" spans="1:1">
       <c r="A8441">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8442" spans="1:1">
       <c r="A8442">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8443" spans="1:1">
       <c r="A8443">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8444" spans="1:1">
       <c r="A8444">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8445" spans="1:1">
       <c r="A8445">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8446" spans="1:1">
       <c r="A8446">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8447" spans="1:1">
       <c r="A8447">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8448" spans="1:1">
       <c r="A8448">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8449" spans="1:1">
       <c r="A8449">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8450" spans="1:1">
       <c r="A8450">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8451" spans="1:1">
       <c r="A8451">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8452" spans="1:1">
       <c r="A8452">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8453" spans="1:1">
       <c r="A8453">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8454" spans="1:1">
       <c r="A8454">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8455" spans="1:1">
       <c r="A8455">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8456" spans="1:1">
       <c r="A8456">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8457" spans="1:1">
       <c r="A8457">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8458" spans="1:1">

--- a/StROBe/Data/EV_load_profile.xlsx
+++ b/StROBe/Data/EV_load_profile.xlsx
@@ -4179,247 +4179,247 @@
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="811" spans="1:1">
@@ -6129,617 +6129,617 @@
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
@@ -12029,697 +12029,697 @@
     </row>
     <row r="2332" spans="1:1">
       <c r="A2332">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2333" spans="1:1">
       <c r="A2333">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2334" spans="1:1">
       <c r="A2334">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2335" spans="1:1">
       <c r="A2335">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2336" spans="1:1">
       <c r="A2336">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2337" spans="1:1">
       <c r="A2337">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2338" spans="1:1">
       <c r="A2338">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2339" spans="1:1">
       <c r="A2339">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2340" spans="1:1">
       <c r="A2340">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2341" spans="1:1">
       <c r="A2341">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2342" spans="1:1">
       <c r="A2342">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2343" spans="1:1">
       <c r="A2343">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2344" spans="1:1">
       <c r="A2344">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2345" spans="1:1">
       <c r="A2345">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2346" spans="1:1">
       <c r="A2346">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2347" spans="1:1">
       <c r="A2347">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2348" spans="1:1">
       <c r="A2348">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2349" spans="1:1">
       <c r="A2349">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2350" spans="1:1">
       <c r="A2350">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2351" spans="1:1">
       <c r="A2351">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2352" spans="1:1">
       <c r="A2352">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2353" spans="1:1">
       <c r="A2353">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2354" spans="1:1">
       <c r="A2354">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2355" spans="1:1">
       <c r="A2355">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2356" spans="1:1">
       <c r="A2356">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2357" spans="1:1">
       <c r="A2357">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2358" spans="1:1">
       <c r="A2358">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2359" spans="1:1">
       <c r="A2359">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2360" spans="1:1">
       <c r="A2360">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2361" spans="1:1">
       <c r="A2361">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2362" spans="1:1">
       <c r="A2362">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2363" spans="1:1">
       <c r="A2363">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2364" spans="1:1">
       <c r="A2364">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2365" spans="1:1">
       <c r="A2365">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2366" spans="1:1">
       <c r="A2366">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2367" spans="1:1">
       <c r="A2367">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2368" spans="1:1">
       <c r="A2368">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2369" spans="1:1">
       <c r="A2369">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2370" spans="1:1">
       <c r="A2370">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2371" spans="1:1">
       <c r="A2371">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2372" spans="1:1">
       <c r="A2372">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2373" spans="1:1">
       <c r="A2373">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2374" spans="1:1">
       <c r="A2374">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2375" spans="1:1">
       <c r="A2375">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2376" spans="1:1">
       <c r="A2376">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2377" spans="1:1">
       <c r="A2377">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2378" spans="1:1">
       <c r="A2378">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2379" spans="1:1">
       <c r="A2379">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2380" spans="1:1">
       <c r="A2380">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2381" spans="1:1">
       <c r="A2381">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2382" spans="1:1">
       <c r="A2382">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2383" spans="1:1">
       <c r="A2383">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2384" spans="1:1">
       <c r="A2384">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2385" spans="1:1">
       <c r="A2385">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2386" spans="1:1">
       <c r="A2386">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2387" spans="1:1">
       <c r="A2387">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2388" spans="1:1">
       <c r="A2388">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2389" spans="1:1">
       <c r="A2389">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2390" spans="1:1">
       <c r="A2390">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2391" spans="1:1">
       <c r="A2391">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2392" spans="1:1">
       <c r="A2392">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2393" spans="1:1">
       <c r="A2393">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2394" spans="1:1">
       <c r="A2394">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2395" spans="1:1">
       <c r="A2395">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2396" spans="1:1">
       <c r="A2396">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2397" spans="1:1">
       <c r="A2397">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2398" spans="1:1">
       <c r="A2398">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2399" spans="1:1">
       <c r="A2399">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2400" spans="1:1">
       <c r="A2400">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2401" spans="1:1">
       <c r="A2401">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2402" spans="1:1">
       <c r="A2402">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2403" spans="1:1">
       <c r="A2403">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2404" spans="1:1">
       <c r="A2404">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2405" spans="1:1">
       <c r="A2405">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2406" spans="1:1">
       <c r="A2406">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2407" spans="1:1">
       <c r="A2407">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2408" spans="1:1">
       <c r="A2408">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2409" spans="1:1">
       <c r="A2409">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2410" spans="1:1">
       <c r="A2410">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2411" spans="1:1">
       <c r="A2411">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2412" spans="1:1">
       <c r="A2412">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2413" spans="1:1">
       <c r="A2413">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2414" spans="1:1">
       <c r="A2414">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2415" spans="1:1">
       <c r="A2415">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2416" spans="1:1">
       <c r="A2416">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2417" spans="1:1">
       <c r="A2417">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2418" spans="1:1">
       <c r="A2418">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2419" spans="1:1">
       <c r="A2419">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2420" spans="1:1">
       <c r="A2420">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2421" spans="1:1">
       <c r="A2421">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2422" spans="1:1">
       <c r="A2422">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2423" spans="1:1">
       <c r="A2423">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2424" spans="1:1">
       <c r="A2424">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2425" spans="1:1">
       <c r="A2425">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2426" spans="1:1">
       <c r="A2426">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2427" spans="1:1">
       <c r="A2427">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2428" spans="1:1">
       <c r="A2428">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2429" spans="1:1">
       <c r="A2429">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2430" spans="1:1">
       <c r="A2430">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2431" spans="1:1">
       <c r="A2431">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2432" spans="1:1">
       <c r="A2432">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2433" spans="1:1">
       <c r="A2433">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2434" spans="1:1">
       <c r="A2434">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2435" spans="1:1">
       <c r="A2435">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2436" spans="1:1">
       <c r="A2436">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2437" spans="1:1">
       <c r="A2437">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2438" spans="1:1">
       <c r="A2438">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2439" spans="1:1">
       <c r="A2439">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2440" spans="1:1">
       <c r="A2440">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2441" spans="1:1">
       <c r="A2441">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2442" spans="1:1">
       <c r="A2442">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2443" spans="1:1">
       <c r="A2443">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2444" spans="1:1">
       <c r="A2444">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2445" spans="1:1">
       <c r="A2445">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2446" spans="1:1">
       <c r="A2446">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2447" spans="1:1">
       <c r="A2447">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2448" spans="1:1">
       <c r="A2448">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2449" spans="1:1">
       <c r="A2449">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2450" spans="1:1">
       <c r="A2450">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2451" spans="1:1">
       <c r="A2451">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2452" spans="1:1">
       <c r="A2452">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2453" spans="1:1">
       <c r="A2453">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2454" spans="1:1">
       <c r="A2454">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2455" spans="1:1">
       <c r="A2455">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2456" spans="1:1">
       <c r="A2456">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2457" spans="1:1">
       <c r="A2457">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2458" spans="1:1">
       <c r="A2458">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2459" spans="1:1">
       <c r="A2459">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2460" spans="1:1">
       <c r="A2460">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2461" spans="1:1">
       <c r="A2461">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2462" spans="1:1">
       <c r="A2462">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2463" spans="1:1">
       <c r="A2463">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2464" spans="1:1">
       <c r="A2464">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2465" spans="1:1">
       <c r="A2465">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2466" spans="1:1">
       <c r="A2466">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2467" spans="1:1">
       <c r="A2467">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2468" spans="1:1">
       <c r="A2468">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2469" spans="1:1">
       <c r="A2469">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2470" spans="1:1">
       <c r="A2470">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2471" spans="1:1">
@@ -33829,152 +33829,152 @@
     </row>
     <row r="6692" spans="1:1">
       <c r="A6692">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6693" spans="1:1">
       <c r="A6693">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6694" spans="1:1">
       <c r="A6694">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6695" spans="1:1">
       <c r="A6695">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6696" spans="1:1">
       <c r="A6696">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6697" spans="1:1">
       <c r="A6697">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6698" spans="1:1">
       <c r="A6698">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6699" spans="1:1">
       <c r="A6699">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6700" spans="1:1">
       <c r="A6700">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6701" spans="1:1">
       <c r="A6701">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6702" spans="1:1">
       <c r="A6702">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6703" spans="1:1">
       <c r="A6703">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6704" spans="1:1">
       <c r="A6704">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6705" spans="1:1">
       <c r="A6705">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6706" spans="1:1">
       <c r="A6706">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6707" spans="1:1">
       <c r="A6707">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6708" spans="1:1">
       <c r="A6708">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6709" spans="1:1">
       <c r="A6709">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6710" spans="1:1">
       <c r="A6710">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6711" spans="1:1">
       <c r="A6711">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6712" spans="1:1">
       <c r="A6712">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6713" spans="1:1">
       <c r="A6713">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6714" spans="1:1">
       <c r="A6714">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6715" spans="1:1">
       <c r="A6715">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6716" spans="1:1">
       <c r="A6716">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6717" spans="1:1">
       <c r="A6717">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6718" spans="1:1">
       <c r="A6718">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6719" spans="1:1">
       <c r="A6719">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6720" spans="1:1">
       <c r="A6720">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6721" spans="1:1">
       <c r="A6721">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6722" spans="1:1">
@@ -34929,617 +34929,617 @@
     </row>
     <row r="6912" spans="1:1">
       <c r="A6912">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6913" spans="1:1">
       <c r="A6913">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6914" spans="1:1">
       <c r="A6914">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6915" spans="1:1">
       <c r="A6915">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6916" spans="1:1">
       <c r="A6916">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6917" spans="1:1">
       <c r="A6917">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6918" spans="1:1">
       <c r="A6918">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6919" spans="1:1">
       <c r="A6919">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6920" spans="1:1">
       <c r="A6920">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6921" spans="1:1">
       <c r="A6921">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6922" spans="1:1">
       <c r="A6922">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6923" spans="1:1">
       <c r="A6923">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6924" spans="1:1">
       <c r="A6924">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6925" spans="1:1">
       <c r="A6925">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6926" spans="1:1">
       <c r="A6926">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6927" spans="1:1">
       <c r="A6927">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6928" spans="1:1">
       <c r="A6928">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6929" spans="1:1">
       <c r="A6929">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6930" spans="1:1">
       <c r="A6930">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6931" spans="1:1">
       <c r="A6931">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6932" spans="1:1">
       <c r="A6932">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6933" spans="1:1">
       <c r="A6933">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6934" spans="1:1">
       <c r="A6934">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6935" spans="1:1">
       <c r="A6935">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6936" spans="1:1">
       <c r="A6936">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6937" spans="1:1">
       <c r="A6937">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6938" spans="1:1">
       <c r="A6938">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6939" spans="1:1">
       <c r="A6939">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6940" spans="1:1">
       <c r="A6940">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6941" spans="1:1">
       <c r="A6941">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6942" spans="1:1">
       <c r="A6942">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6943" spans="1:1">
       <c r="A6943">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6944" spans="1:1">
       <c r="A6944">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6945" spans="1:1">
       <c r="A6945">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6946" spans="1:1">
       <c r="A6946">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6947" spans="1:1">
       <c r="A6947">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6948" spans="1:1">
       <c r="A6948">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6949" spans="1:1">
       <c r="A6949">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6950" spans="1:1">
       <c r="A6950">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6951" spans="1:1">
       <c r="A6951">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6952" spans="1:1">
       <c r="A6952">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6953" spans="1:1">
       <c r="A6953">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6954" spans="1:1">
       <c r="A6954">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6955" spans="1:1">
       <c r="A6955">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6956" spans="1:1">
       <c r="A6956">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6957" spans="1:1">
       <c r="A6957">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6958" spans="1:1">
       <c r="A6958">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6959" spans="1:1">
       <c r="A6959">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6960" spans="1:1">
       <c r="A6960">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6961" spans="1:1">
       <c r="A6961">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6962" spans="1:1">
       <c r="A6962">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6963" spans="1:1">
       <c r="A6963">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6964" spans="1:1">
       <c r="A6964">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6965" spans="1:1">
       <c r="A6965">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6966" spans="1:1">
       <c r="A6966">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6967" spans="1:1">
       <c r="A6967">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6968" spans="1:1">
       <c r="A6968">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6969" spans="1:1">
       <c r="A6969">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6970" spans="1:1">
       <c r="A6970">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6971" spans="1:1">
       <c r="A6971">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6972" spans="1:1">
       <c r="A6972">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6973" spans="1:1">
       <c r="A6973">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6974" spans="1:1">
       <c r="A6974">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6975" spans="1:1">
       <c r="A6975">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6976" spans="1:1">
       <c r="A6976">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6977" spans="1:1">
       <c r="A6977">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6978" spans="1:1">
       <c r="A6978">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6979" spans="1:1">
       <c r="A6979">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6980" spans="1:1">
       <c r="A6980">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6981" spans="1:1">
       <c r="A6981">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6982" spans="1:1">
       <c r="A6982">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6983" spans="1:1">
       <c r="A6983">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6984" spans="1:1">
       <c r="A6984">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6985" spans="1:1">
       <c r="A6985">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6986" spans="1:1">
       <c r="A6986">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6987" spans="1:1">
       <c r="A6987">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6988" spans="1:1">
       <c r="A6988">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6989" spans="1:1">
       <c r="A6989">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6990" spans="1:1">
       <c r="A6990">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6991" spans="1:1">
       <c r="A6991">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6992" spans="1:1">
       <c r="A6992">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6993" spans="1:1">
       <c r="A6993">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6994" spans="1:1">
       <c r="A6994">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6995" spans="1:1">
       <c r="A6995">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6996" spans="1:1">
       <c r="A6996">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6997" spans="1:1">
       <c r="A6997">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6998" spans="1:1">
       <c r="A6998">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="6999" spans="1:1">
       <c r="A6999">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7000" spans="1:1">
       <c r="A7000">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7001" spans="1:1">
       <c r="A7001">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7002" spans="1:1">
       <c r="A7002">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7003" spans="1:1">
       <c r="A7003">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7004" spans="1:1">
       <c r="A7004">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7005" spans="1:1">
       <c r="A7005">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7006" spans="1:1">
       <c r="A7006">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7007" spans="1:1">
       <c r="A7007">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7008" spans="1:1">
       <c r="A7008">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7009" spans="1:1">
       <c r="A7009">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7010" spans="1:1">
       <c r="A7010">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7011" spans="1:1">
       <c r="A7011">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7012" spans="1:1">
       <c r="A7012">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7013" spans="1:1">
       <c r="A7013">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7014" spans="1:1">
       <c r="A7014">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7015" spans="1:1">
       <c r="A7015">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7016" spans="1:1">
       <c r="A7016">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7017" spans="1:1">
       <c r="A7017">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7018" spans="1:1">
       <c r="A7018">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7019" spans="1:1">
       <c r="A7019">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7020" spans="1:1">
       <c r="A7020">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7021" spans="1:1">
       <c r="A7021">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7022" spans="1:1">
       <c r="A7022">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7023" spans="1:1">
       <c r="A7023">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7024" spans="1:1">
       <c r="A7024">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7025" spans="1:1">
       <c r="A7025">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7026" spans="1:1">
       <c r="A7026">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7027" spans="1:1">
       <c r="A7027">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7028" spans="1:1">
       <c r="A7028">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7029" spans="1:1">
       <c r="A7029">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7030" spans="1:1">
       <c r="A7030">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7031" spans="1:1">
       <c r="A7031">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7032" spans="1:1">
       <c r="A7032">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7033" spans="1:1">
       <c r="A7033">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7034" spans="1:1">
       <c r="A7034">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="7035" spans="1:1">
@@ -40679,472 +40679,472 @@
     </row>
     <row r="8062" spans="1:1">
       <c r="A8062">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8063" spans="1:1">
       <c r="A8063">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8064" spans="1:1">
       <c r="A8064">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8065" spans="1:1">
       <c r="A8065">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8066" spans="1:1">
       <c r="A8066">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8067" spans="1:1">
       <c r="A8067">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8068" spans="1:1">
       <c r="A8068">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8069" spans="1:1">
       <c r="A8069">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8070" spans="1:1">
       <c r="A8070">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8071" spans="1:1">
       <c r="A8071">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8072" spans="1:1">
       <c r="A8072">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8073" spans="1:1">
       <c r="A8073">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8074" spans="1:1">
       <c r="A8074">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8075" spans="1:1">
       <c r="A8075">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8076" spans="1:1">
       <c r="A8076">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8077" spans="1:1">
       <c r="A8077">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8078" spans="1:1">
       <c r="A8078">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8079" spans="1:1">
       <c r="A8079">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8080" spans="1:1">
       <c r="A8080">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8081" spans="1:1">
       <c r="A8081">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8082" spans="1:1">
       <c r="A8082">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8083" spans="1:1">
       <c r="A8083">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8084" spans="1:1">
       <c r="A8084">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8085" spans="1:1">
       <c r="A8085">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8086" spans="1:1">
       <c r="A8086">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8087" spans="1:1">
       <c r="A8087">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8088" spans="1:1">
       <c r="A8088">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8089" spans="1:1">
       <c r="A8089">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8090" spans="1:1">
       <c r="A8090">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8091" spans="1:1">
       <c r="A8091">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8092" spans="1:1">
       <c r="A8092">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8093" spans="1:1">
       <c r="A8093">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8094" spans="1:1">
       <c r="A8094">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8095" spans="1:1">
       <c r="A8095">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8096" spans="1:1">
       <c r="A8096">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8097" spans="1:1">
       <c r="A8097">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8098" spans="1:1">
       <c r="A8098">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8099" spans="1:1">
       <c r="A8099">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8100" spans="1:1">
       <c r="A8100">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8101" spans="1:1">
       <c r="A8101">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8102" spans="1:1">
       <c r="A8102">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8103" spans="1:1">
       <c r="A8103">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8104" spans="1:1">
       <c r="A8104">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8105" spans="1:1">
       <c r="A8105">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8106" spans="1:1">
       <c r="A8106">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8107" spans="1:1">
       <c r="A8107">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8108" spans="1:1">
       <c r="A8108">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8109" spans="1:1">
       <c r="A8109">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8110" spans="1:1">
       <c r="A8110">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8111" spans="1:1">
       <c r="A8111">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8112" spans="1:1">
       <c r="A8112">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8113" spans="1:1">
       <c r="A8113">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8114" spans="1:1">
       <c r="A8114">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8115" spans="1:1">
       <c r="A8115">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8116" spans="1:1">
       <c r="A8116">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8117" spans="1:1">
       <c r="A8117">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8118" spans="1:1">
       <c r="A8118">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8119" spans="1:1">
       <c r="A8119">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8120" spans="1:1">
       <c r="A8120">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8121" spans="1:1">
       <c r="A8121">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8122" spans="1:1">
       <c r="A8122">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8123" spans="1:1">
       <c r="A8123">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8124" spans="1:1">
       <c r="A8124">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8125" spans="1:1">
       <c r="A8125">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8126" spans="1:1">
       <c r="A8126">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8127" spans="1:1">
       <c r="A8127">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8128" spans="1:1">
       <c r="A8128">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8129" spans="1:1">
       <c r="A8129">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8130" spans="1:1">
       <c r="A8130">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8131" spans="1:1">
       <c r="A8131">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8132" spans="1:1">
       <c r="A8132">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8133" spans="1:1">
       <c r="A8133">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8134" spans="1:1">
       <c r="A8134">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8135" spans="1:1">
       <c r="A8135">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8136" spans="1:1">
       <c r="A8136">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8137" spans="1:1">
       <c r="A8137">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8138" spans="1:1">
       <c r="A8138">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8139" spans="1:1">
       <c r="A8139">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8140" spans="1:1">
       <c r="A8140">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8141" spans="1:1">
       <c r="A8141">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8142" spans="1:1">
       <c r="A8142">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8143" spans="1:1">
       <c r="A8143">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8144" spans="1:1">
       <c r="A8144">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8145" spans="1:1">
       <c r="A8145">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8146" spans="1:1">
       <c r="A8146">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8147" spans="1:1">
       <c r="A8147">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8148" spans="1:1">
       <c r="A8148">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8149" spans="1:1">
       <c r="A8149">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8150" spans="1:1">
       <c r="A8150">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8151" spans="1:1">
       <c r="A8151">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8152" spans="1:1">
       <c r="A8152">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8153" spans="1:1">
       <c r="A8153">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8154" spans="1:1">
       <c r="A8154">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8155" spans="1:1">
       <c r="A8155">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8156" spans="1:1">
@@ -42029,292 +42029,292 @@
     </row>
     <row r="8332" spans="1:1">
       <c r="A8332">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8333" spans="1:1">
       <c r="A8333">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8334" spans="1:1">
       <c r="A8334">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8335" spans="1:1">
       <c r="A8335">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8336" spans="1:1">
       <c r="A8336">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8337" spans="1:1">
       <c r="A8337">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8338" spans="1:1">
       <c r="A8338">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8339" spans="1:1">
       <c r="A8339">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8340" spans="1:1">
       <c r="A8340">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8341" spans="1:1">
       <c r="A8341">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8342" spans="1:1">
       <c r="A8342">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8343" spans="1:1">
       <c r="A8343">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8344" spans="1:1">
       <c r="A8344">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8345" spans="1:1">
       <c r="A8345">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8346" spans="1:1">
       <c r="A8346">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8347" spans="1:1">
       <c r="A8347">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8348" spans="1:1">
       <c r="A8348">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8349" spans="1:1">
       <c r="A8349">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8350" spans="1:1">
       <c r="A8350">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8351" spans="1:1">
       <c r="A8351">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8352" spans="1:1">
       <c r="A8352">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8353" spans="1:1">
       <c r="A8353">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8354" spans="1:1">
       <c r="A8354">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8355" spans="1:1">
       <c r="A8355">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8356" spans="1:1">
       <c r="A8356">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8357" spans="1:1">
       <c r="A8357">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8358" spans="1:1">
       <c r="A8358">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8359" spans="1:1">
       <c r="A8359">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8360" spans="1:1">
       <c r="A8360">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8361" spans="1:1">
       <c r="A8361">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8362" spans="1:1">
       <c r="A8362">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8363" spans="1:1">
       <c r="A8363">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8364" spans="1:1">
       <c r="A8364">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8365" spans="1:1">
       <c r="A8365">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8366" spans="1:1">
       <c r="A8366">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8367" spans="1:1">
       <c r="A8367">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8368" spans="1:1">
       <c r="A8368">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8369" spans="1:1">
       <c r="A8369">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8370" spans="1:1">
       <c r="A8370">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8371" spans="1:1">
       <c r="A8371">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8372" spans="1:1">
       <c r="A8372">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8373" spans="1:1">
       <c r="A8373">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8374" spans="1:1">
       <c r="A8374">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8375" spans="1:1">
       <c r="A8375">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8376" spans="1:1">
       <c r="A8376">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8377" spans="1:1">
       <c r="A8377">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8378" spans="1:1">
       <c r="A8378">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8379" spans="1:1">
       <c r="A8379">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8380" spans="1:1">
       <c r="A8380">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8381" spans="1:1">
       <c r="A8381">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8382" spans="1:1">
       <c r="A8382">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8383" spans="1:1">
       <c r="A8383">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8384" spans="1:1">
       <c r="A8384">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8385" spans="1:1">
       <c r="A8385">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8386" spans="1:1">
       <c r="A8386">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8387" spans="1:1">
       <c r="A8387">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8388" spans="1:1">
       <c r="A8388">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8389" spans="1:1">
       <c r="A8389">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="8390" spans="1:1">
@@ -48579,272 +48579,272 @@
     </row>
     <row r="9642" spans="1:1">
       <c r="A9642">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9643" spans="1:1">
       <c r="A9643">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9644" spans="1:1">
       <c r="A9644">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9645" spans="1:1">
       <c r="A9645">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9646" spans="1:1">
       <c r="A9646">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9647" spans="1:1">
       <c r="A9647">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9648" spans="1:1">
       <c r="A9648">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9649" spans="1:1">
       <c r="A9649">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9650" spans="1:1">
       <c r="A9650">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9651" spans="1:1">
       <c r="A9651">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9652" spans="1:1">
       <c r="A9652">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9653" spans="1:1">
       <c r="A9653">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9654" spans="1:1">
       <c r="A9654">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9655" spans="1:1">
       <c r="A9655">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9656" spans="1:1">
       <c r="A9656">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9657" spans="1:1">
       <c r="A9657">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9658" spans="1:1">
       <c r="A9658">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9659" spans="1:1">
       <c r="A9659">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9660" spans="1:1">
       <c r="A9660">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9661" spans="1:1">
       <c r="A9661">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9662" spans="1:1">
       <c r="A9662">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9663" spans="1:1">
       <c r="A9663">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9664" spans="1:1">
       <c r="A9664">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9665" spans="1:1">
       <c r="A9665">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9666" spans="1:1">
       <c r="A9666">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9667" spans="1:1">
       <c r="A9667">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9668" spans="1:1">
       <c r="A9668">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9669" spans="1:1">
       <c r="A9669">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9670" spans="1:1">
       <c r="A9670">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9671" spans="1:1">
       <c r="A9671">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9672" spans="1:1">
       <c r="A9672">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9673" spans="1:1">
       <c r="A9673">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9674" spans="1:1">
       <c r="A9674">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9675" spans="1:1">
       <c r="A9675">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9676" spans="1:1">
       <c r="A9676">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9677" spans="1:1">
       <c r="A9677">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9678" spans="1:1">
       <c r="A9678">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9679" spans="1:1">
       <c r="A9679">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9680" spans="1:1">
       <c r="A9680">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9681" spans="1:1">
       <c r="A9681">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9682" spans="1:1">
       <c r="A9682">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9683" spans="1:1">
       <c r="A9683">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9684" spans="1:1">
       <c r="A9684">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9685" spans="1:1">
       <c r="A9685">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9686" spans="1:1">
       <c r="A9686">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9687" spans="1:1">
       <c r="A9687">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9688" spans="1:1">
       <c r="A9688">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9689" spans="1:1">
       <c r="A9689">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9690" spans="1:1">
       <c r="A9690">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9691" spans="1:1">
       <c r="A9691">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9692" spans="1:1">
       <c r="A9692">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9693" spans="1:1">
       <c r="A9693">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9694" spans="1:1">
       <c r="A9694">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9695" spans="1:1">
       <c r="A9695">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9696" spans="1:1">
@@ -49329,317 +49329,317 @@
     </row>
     <row r="9792" spans="1:1">
       <c r="A9792">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9793" spans="1:1">
       <c r="A9793">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9794" spans="1:1">
       <c r="A9794">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9795" spans="1:1">
       <c r="A9795">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9796" spans="1:1">
       <c r="A9796">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9797" spans="1:1">
       <c r="A9797">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9798" spans="1:1">
       <c r="A9798">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9799" spans="1:1">
       <c r="A9799">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9800" spans="1:1">
       <c r="A9800">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9801" spans="1:1">
       <c r="A9801">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9802" spans="1:1">
       <c r="A9802">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9803" spans="1:1">
       <c r="A9803">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9804" spans="1:1">
       <c r="A9804">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9805" spans="1:1">
       <c r="A9805">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9806" spans="1:1">
       <c r="A9806">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9807" spans="1:1">
       <c r="A9807">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9808" spans="1:1">
       <c r="A9808">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9809" spans="1:1">
       <c r="A9809">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9810" spans="1:1">
       <c r="A9810">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9811" spans="1:1">
       <c r="A9811">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9812" spans="1:1">
       <c r="A9812">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9813" spans="1:1">
       <c r="A9813">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9814" spans="1:1">
       <c r="A9814">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9815" spans="1:1">
       <c r="A9815">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9816" spans="1:1">
       <c r="A9816">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9817" spans="1:1">
       <c r="A9817">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9818" spans="1:1">
       <c r="A9818">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9819" spans="1:1">
       <c r="A9819">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9820" spans="1:1">
       <c r="A9820">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9821" spans="1:1">
       <c r="A9821">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9822" spans="1:1">
       <c r="A9822">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9823" spans="1:1">
       <c r="A9823">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9824" spans="1:1">
       <c r="A9824">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9825" spans="1:1">
       <c r="A9825">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9826" spans="1:1">
       <c r="A9826">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9827" spans="1:1">
       <c r="A9827">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9828" spans="1:1">
       <c r="A9828">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9829" spans="1:1">
       <c r="A9829">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9830" spans="1:1">
       <c r="A9830">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9831" spans="1:1">
       <c r="A9831">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9832" spans="1:1">
       <c r="A9832">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9833" spans="1:1">
       <c r="A9833">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9834" spans="1:1">
       <c r="A9834">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9835" spans="1:1">
       <c r="A9835">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9836" spans="1:1">
       <c r="A9836">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9837" spans="1:1">
       <c r="A9837">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9838" spans="1:1">
       <c r="A9838">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9839" spans="1:1">
       <c r="A9839">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9840" spans="1:1">
       <c r="A9840">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9841" spans="1:1">
       <c r="A9841">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9842" spans="1:1">
       <c r="A9842">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9843" spans="1:1">
       <c r="A9843">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9844" spans="1:1">
       <c r="A9844">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9845" spans="1:1">
       <c r="A9845">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9846" spans="1:1">
       <c r="A9846">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9847" spans="1:1">
       <c r="A9847">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9848" spans="1:1">
       <c r="A9848">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9849" spans="1:1">
       <c r="A9849">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9850" spans="1:1">
       <c r="A9850">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9851" spans="1:1">
       <c r="A9851">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9852" spans="1:1">
       <c r="A9852">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9853" spans="1:1">
       <c r="A9853">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9854" spans="1:1">
       <c r="A9854">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9855" spans="1:1">

--- a/StROBe/Data/EV_load_profile.xlsx
+++ b/StROBe/Data/EV_load_profile.xlsx
@@ -4179,247 +4179,247 @@
     </row>
     <row r="762" spans="1:1">
       <c r="A762">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:1">
@@ -6129,617 +6129,617 @@
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
@@ -12029,697 +12029,697 @@
     </row>
     <row r="2332" spans="1:1">
       <c r="A2332">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2333" spans="1:1">
       <c r="A2333">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2334" spans="1:1">
       <c r="A2334">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2335" spans="1:1">
       <c r="A2335">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2336" spans="1:1">
       <c r="A2336">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2337" spans="1:1">
       <c r="A2337">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2338" spans="1:1">
       <c r="A2338">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2339" spans="1:1">
       <c r="A2339">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2340" spans="1:1">
       <c r="A2340">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2341" spans="1:1">
       <c r="A2341">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2342" spans="1:1">
       <c r="A2342">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2343" spans="1:1">
       <c r="A2343">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2344" spans="1:1">
       <c r="A2344">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2345" spans="1:1">
       <c r="A2345">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2346" spans="1:1">
       <c r="A2346">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2347" spans="1:1">
       <c r="A2347">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2348" spans="1:1">
       <c r="A2348">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2349" spans="1:1">
       <c r="A2349">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2350" spans="1:1">
       <c r="A2350">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2351" spans="1:1">
       <c r="A2351">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2352" spans="1:1">
       <c r="A2352">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2353" spans="1:1">
       <c r="A2353">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2354" spans="1:1">
       <c r="A2354">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2355" spans="1:1">
       <c r="A2355">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2356" spans="1:1">
       <c r="A2356">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2357" spans="1:1">
       <c r="A2357">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2358" spans="1:1">
       <c r="A2358">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2359" spans="1:1">
       <c r="A2359">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2360" spans="1:1">
       <c r="A2360">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2361" spans="1:1">
       <c r="A2361">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2362" spans="1:1">
       <c r="A2362">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2363" spans="1:1">
       <c r="A2363">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2364" spans="1:1">
       <c r="A2364">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2365" spans="1:1">
       <c r="A2365">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2366" spans="1:1">
       <c r="A2366">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2367" spans="1:1">
       <c r="A2367">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2368" spans="1:1">
       <c r="A2368">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2369" spans="1:1">
       <c r="A2369">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2370" spans="1:1">
       <c r="A2370">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2371" spans="1:1">
       <c r="A2371">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2372" spans="1:1">
       <c r="A2372">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2373" spans="1:1">
       <c r="A2373">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2374" spans="1:1">
       <c r="A2374">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2375" spans="1:1">
       <c r="A2375">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2376" spans="1:1">
       <c r="A2376">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2377" spans="1:1">
       <c r="A2377">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2378" spans="1:1">
       <c r="A2378">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2379" spans="1:1">
       <c r="A2379">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2380" spans="1:1">
       <c r="A2380">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2381" spans="1:1">
       <c r="A2381">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2382" spans="1:1">
       <c r="A2382">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2383" spans="1:1">
       <c r="A2383">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2384" spans="1:1">
       <c r="A2384">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2385" spans="1:1">
       <c r="A2385">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2386" spans="1:1">
       <c r="A2386">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2387" spans="1:1">
       <c r="A2387">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2388" spans="1:1">
       <c r="A2388">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2389" spans="1:1">
       <c r="A2389">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2390" spans="1:1">
       <c r="A2390">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2391" spans="1:1">
       <c r="A2391">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2392" spans="1:1">
       <c r="A2392">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2393" spans="1:1">
       <c r="A2393">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2394" spans="1:1">
       <c r="A2394">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2395" spans="1:1">
       <c r="A2395">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2396" spans="1:1">
       <c r="A2396">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2397" spans="1:1">
       <c r="A2397">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2398" spans="1:1">
       <c r="A2398">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2399" spans="1:1">
       <c r="A2399">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2400" spans="1:1">
       <c r="A2400">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2401" spans="1:1">
       <c r="A2401">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2402" spans="1:1">
       <c r="A2402">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2403" spans="1:1">
       <c r="A2403">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2404" spans="1:1">
       <c r="A2404">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2405" spans="1:1">
       <c r="A2405">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2406" spans="1:1">
       <c r="A2406">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2407" spans="1:1">
       <c r="A2407">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2408" spans="1:1">
       <c r="A2408">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2409" spans="1:1">
       <c r="A2409">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2410" spans="1:1">
       <c r="A2410">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2411" spans="1:1">
       <c r="A2411">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2412" spans="1:1">
       <c r="A2412">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2413" spans="1:1">
       <c r="A2413">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2414" spans="1:1">
       <c r="A2414">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2415" spans="1:1">
       <c r="A2415">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2416" spans="1:1">
       <c r="A2416">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2417" spans="1:1">
       <c r="A2417">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2418" spans="1:1">
       <c r="A2418">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2419" spans="1:1">
       <c r="A2419">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2420" spans="1:1">
       <c r="A2420">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2421" spans="1:1">
       <c r="A2421">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2422" spans="1:1">
       <c r="A2422">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2423" spans="1:1">
       <c r="A2423">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2424" spans="1:1">
       <c r="A2424">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2425" spans="1:1">
       <c r="A2425">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2426" spans="1:1">
       <c r="A2426">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2427" spans="1:1">
       <c r="A2427">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2428" spans="1:1">
       <c r="A2428">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2429" spans="1:1">
       <c r="A2429">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2430" spans="1:1">
       <c r="A2430">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2431" spans="1:1">
       <c r="A2431">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2432" spans="1:1">
       <c r="A2432">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2433" spans="1:1">
       <c r="A2433">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2434" spans="1:1">
       <c r="A2434">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2435" spans="1:1">
       <c r="A2435">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2436" spans="1:1">
       <c r="A2436">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2437" spans="1:1">
       <c r="A2437">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2438" spans="1:1">
       <c r="A2438">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2439" spans="1:1">
       <c r="A2439">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2440" spans="1:1">
       <c r="A2440">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2441" spans="1:1">
       <c r="A2441">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2442" spans="1:1">
       <c r="A2442">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2443" spans="1:1">
       <c r="A2443">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2444" spans="1:1">
       <c r="A2444">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2445" spans="1:1">
       <c r="A2445">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2446" spans="1:1">
       <c r="A2446">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2447" spans="1:1">
       <c r="A2447">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2448" spans="1:1">
       <c r="A2448">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2449" spans="1:1">
       <c r="A2449">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2450" spans="1:1">
       <c r="A2450">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2451" spans="1:1">
       <c r="A2451">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2452" spans="1:1">
       <c r="A2452">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2453" spans="1:1">
       <c r="A2453">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454" spans="1:1">
       <c r="A2454">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2455" spans="1:1">
       <c r="A2455">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2456" spans="1:1">
       <c r="A2456">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2457" spans="1:1">
       <c r="A2457">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2458" spans="1:1">
       <c r="A2458">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2459" spans="1:1">
       <c r="A2459">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2460" spans="1:1">
       <c r="A2460">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2461" spans="1:1">
       <c r="A2461">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:1">
       <c r="A2462">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2463" spans="1:1">
       <c r="A2463">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464" spans="1:1">
       <c r="A2464">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2465" spans="1:1">
       <c r="A2465">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2466" spans="1:1">
       <c r="A2466">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2467" spans="1:1">
       <c r="A2467">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2468" spans="1:1">
       <c r="A2468">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2469" spans="1:1">
       <c r="A2469">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2470" spans="1:1">
       <c r="A2470">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2471" spans="1:1">
@@ -26729,802 +26729,802 @@
     </row>
     <row r="5272" spans="1:1">
       <c r="A5272">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5273" spans="1:1">
       <c r="A5273">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5274" spans="1:1">
       <c r="A5274">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5275" spans="1:1">
       <c r="A5275">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5276" spans="1:1">
       <c r="A5276">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5277" spans="1:1">
       <c r="A5277">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5278" spans="1:1">
       <c r="A5278">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5279" spans="1:1">
       <c r="A5279">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5280" spans="1:1">
       <c r="A5280">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5281" spans="1:1">
       <c r="A5281">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5282" spans="1:1">
       <c r="A5282">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5283" spans="1:1">
       <c r="A5283">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5284" spans="1:1">
       <c r="A5284">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5285" spans="1:1">
       <c r="A5285">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5286" spans="1:1">
       <c r="A5286">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5287" spans="1:1">
       <c r="A5287">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5288" spans="1:1">
       <c r="A5288">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5289" spans="1:1">
       <c r="A5289">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5290" spans="1:1">
       <c r="A5290">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5291" spans="1:1">
       <c r="A5291">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5292" spans="1:1">
       <c r="A5292">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5293" spans="1:1">
       <c r="A5293">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5294" spans="1:1">
       <c r="A5294">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5295" spans="1:1">
       <c r="A5295">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5296" spans="1:1">
       <c r="A5296">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5297" spans="1:1">
       <c r="A5297">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5298" spans="1:1">
       <c r="A5298">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5299" spans="1:1">
       <c r="A5299">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5300" spans="1:1">
       <c r="A5300">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5301" spans="1:1">
       <c r="A5301">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5302" spans="1:1">
       <c r="A5302">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5303" spans="1:1">
       <c r="A5303">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5304" spans="1:1">
       <c r="A5304">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5305" spans="1:1">
       <c r="A5305">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5306" spans="1:1">
       <c r="A5306">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5307" spans="1:1">
       <c r="A5307">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5308" spans="1:1">
       <c r="A5308">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5309" spans="1:1">
       <c r="A5309">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5310" spans="1:1">
       <c r="A5310">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5311" spans="1:1">
       <c r="A5311">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5312" spans="1:1">
       <c r="A5312">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5313" spans="1:1">
       <c r="A5313">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5314" spans="1:1">
       <c r="A5314">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5315" spans="1:1">
       <c r="A5315">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5316" spans="1:1">
       <c r="A5316">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5317" spans="1:1">
       <c r="A5317">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5318" spans="1:1">
       <c r="A5318">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5319" spans="1:1">
       <c r="A5319">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5320" spans="1:1">
       <c r="A5320">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5321" spans="1:1">
       <c r="A5321">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5322" spans="1:1">
       <c r="A5322">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5323" spans="1:1">
       <c r="A5323">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5324" spans="1:1">
       <c r="A5324">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5325" spans="1:1">
       <c r="A5325">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5326" spans="1:1">
       <c r="A5326">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5327" spans="1:1">
       <c r="A5327">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5328" spans="1:1">
       <c r="A5328">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5329" spans="1:1">
       <c r="A5329">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5330" spans="1:1">
       <c r="A5330">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5331" spans="1:1">
       <c r="A5331">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5332" spans="1:1">
       <c r="A5332">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5333" spans="1:1">
       <c r="A5333">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5334" spans="1:1">
       <c r="A5334">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5335" spans="1:1">
       <c r="A5335">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5336" spans="1:1">
       <c r="A5336">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5337" spans="1:1">
       <c r="A5337">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5338" spans="1:1">
       <c r="A5338">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5339" spans="1:1">
       <c r="A5339">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5340" spans="1:1">
       <c r="A5340">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5341" spans="1:1">
       <c r="A5341">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5342" spans="1:1">
       <c r="A5342">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5343" spans="1:1">
       <c r="A5343">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5344" spans="1:1">
       <c r="A5344">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5345" spans="1:1">
       <c r="A5345">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5346" spans="1:1">
       <c r="A5346">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5347" spans="1:1">
       <c r="A5347">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5348" spans="1:1">
       <c r="A5348">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5349" spans="1:1">
       <c r="A5349">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5350" spans="1:1">
       <c r="A5350">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5351" spans="1:1">
       <c r="A5351">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5352" spans="1:1">
       <c r="A5352">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5353" spans="1:1">
       <c r="A5353">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5354" spans="1:1">
       <c r="A5354">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5355" spans="1:1">
       <c r="A5355">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5356" spans="1:1">
       <c r="A5356">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5357" spans="1:1">
       <c r="A5357">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5358" spans="1:1">
       <c r="A5358">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5359" spans="1:1">
       <c r="A5359">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5360" spans="1:1">
       <c r="A5360">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5361" spans="1:1">
       <c r="A5361">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5362" spans="1:1">
       <c r="A5362">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5363" spans="1:1">
       <c r="A5363">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5364" spans="1:1">
       <c r="A5364">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5365" spans="1:1">
       <c r="A5365">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5366" spans="1:1">
       <c r="A5366">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5367" spans="1:1">
       <c r="A5367">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5368" spans="1:1">
       <c r="A5368">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5369" spans="1:1">
       <c r="A5369">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5370" spans="1:1">
       <c r="A5370">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5371" spans="1:1">
       <c r="A5371">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5372" spans="1:1">
       <c r="A5372">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5373" spans="1:1">
       <c r="A5373">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5374" spans="1:1">
       <c r="A5374">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5375" spans="1:1">
       <c r="A5375">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5376" spans="1:1">
       <c r="A5376">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5377" spans="1:1">
       <c r="A5377">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5378" spans="1:1">
       <c r="A5378">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5379" spans="1:1">
       <c r="A5379">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5380" spans="1:1">
       <c r="A5380">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5381" spans="1:1">
       <c r="A5381">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5382" spans="1:1">
       <c r="A5382">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5383" spans="1:1">
       <c r="A5383">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5384" spans="1:1">
       <c r="A5384">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5385" spans="1:1">
       <c r="A5385">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5386" spans="1:1">
       <c r="A5386">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5387" spans="1:1">
       <c r="A5387">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5388" spans="1:1">
       <c r="A5388">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5389" spans="1:1">
       <c r="A5389">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5390" spans="1:1">
       <c r="A5390">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5391" spans="1:1">
       <c r="A5391">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5392" spans="1:1">
       <c r="A5392">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5393" spans="1:1">
       <c r="A5393">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5394" spans="1:1">
       <c r="A5394">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5395" spans="1:1">
       <c r="A5395">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5396" spans="1:1">
       <c r="A5396">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5397" spans="1:1">
       <c r="A5397">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5398" spans="1:1">
       <c r="A5398">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5399" spans="1:1">
       <c r="A5399">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5400" spans="1:1">
       <c r="A5400">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5401" spans="1:1">
       <c r="A5401">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5402" spans="1:1">
       <c r="A5402">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5403" spans="1:1">
       <c r="A5403">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5404" spans="1:1">
       <c r="A5404">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5405" spans="1:1">
       <c r="A5405">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5406" spans="1:1">
       <c r="A5406">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5407" spans="1:1">
       <c r="A5407">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5408" spans="1:1">
       <c r="A5408">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5409" spans="1:1">
       <c r="A5409">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5410" spans="1:1">
       <c r="A5410">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5411" spans="1:1">
       <c r="A5411">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5412" spans="1:1">
       <c r="A5412">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5413" spans="1:1">
       <c r="A5413">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5414" spans="1:1">
       <c r="A5414">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5415" spans="1:1">
       <c r="A5415">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5416" spans="1:1">
       <c r="A5416">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5417" spans="1:1">
       <c r="A5417">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5418" spans="1:1">
       <c r="A5418">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5419" spans="1:1">
       <c r="A5419">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5420" spans="1:1">
       <c r="A5420">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5421" spans="1:1">
       <c r="A5421">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5422" spans="1:1">
       <c r="A5422">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5423" spans="1:1">
       <c r="A5423">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5424" spans="1:1">
       <c r="A5424">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5425" spans="1:1">
       <c r="A5425">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5426" spans="1:1">
       <c r="A5426">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5427" spans="1:1">
       <c r="A5427">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5428" spans="1:1">
       <c r="A5428">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5429" spans="1:1">
       <c r="A5429">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5430" spans="1:1">
       <c r="A5430">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5431" spans="1:1">
       <c r="A5431">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5432" spans="1:1">
@@ -33829,152 +33829,152 @@
     </row>
     <row r="6692" spans="1:1">
       <c r="A6692">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6693" spans="1:1">
       <c r="A6693">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6694" spans="1:1">
       <c r="A6694">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6695" spans="1:1">
       <c r="A6695">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6696" spans="1:1">
       <c r="A6696">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6697" spans="1:1">
       <c r="A6697">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6698" spans="1:1">
       <c r="A6698">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6699" spans="1:1">
       <c r="A6699">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6700" spans="1:1">
       <c r="A6700">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6701" spans="1:1">
       <c r="A6701">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6702" spans="1:1">
       <c r="A6702">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6703" spans="1:1">
       <c r="A6703">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6704" spans="1:1">
       <c r="A6704">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6705" spans="1:1">
       <c r="A6705">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6706" spans="1:1">
       <c r="A6706">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6707" spans="1:1">
       <c r="A6707">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6708" spans="1:1">
       <c r="A6708">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6709" spans="1:1">
       <c r="A6709">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6710" spans="1:1">
       <c r="A6710">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6711" spans="1:1">
       <c r="A6711">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6712" spans="1:1">
       <c r="A6712">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6713" spans="1:1">
       <c r="A6713">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6714" spans="1:1">
       <c r="A6714">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6715" spans="1:1">
       <c r="A6715">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6716" spans="1:1">
       <c r="A6716">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6717" spans="1:1">
       <c r="A6717">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6718" spans="1:1">
       <c r="A6718">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6719" spans="1:1">
       <c r="A6719">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6720" spans="1:1">
       <c r="A6720">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6721" spans="1:1">
       <c r="A6721">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6722" spans="1:1">
@@ -34929,617 +34929,617 @@
     </row>
     <row r="6912" spans="1:1">
       <c r="A6912">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6913" spans="1:1">
       <c r="A6913">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6914" spans="1:1">
       <c r="A6914">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6915" spans="1:1">
       <c r="A6915">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6916" spans="1:1">
       <c r="A6916">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6917" spans="1:1">
       <c r="A6917">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6918" spans="1:1">
       <c r="A6918">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6919" spans="1:1">
       <c r="A6919">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6920" spans="1:1">
       <c r="A6920">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6921" spans="1:1">
       <c r="A6921">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6922" spans="1:1">
       <c r="A6922">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6923" spans="1:1">
       <c r="A6923">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6924" spans="1:1">
       <c r="A6924">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6925" spans="1:1">
       <c r="A6925">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6926" spans="1:1">
       <c r="A6926">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6927" spans="1:1">
       <c r="A6927">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6928" spans="1:1">
       <c r="A6928">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6929" spans="1:1">
       <c r="A6929">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6930" spans="1:1">
       <c r="A6930">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6931" spans="1:1">
       <c r="A6931">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6932" spans="1:1">
       <c r="A6932">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6933" spans="1:1">
       <c r="A6933">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6934" spans="1:1">
       <c r="A6934">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6935" spans="1:1">
       <c r="A6935">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6936" spans="1:1">
       <c r="A6936">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6937" spans="1:1">
       <c r="A6937">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6938" spans="1:1">
       <c r="A6938">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6939" spans="1:1">
       <c r="A6939">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6940" spans="1:1">
       <c r="A6940">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6941" spans="1:1">
       <c r="A6941">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6942" spans="1:1">
       <c r="A6942">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6943" spans="1:1">
       <c r="A6943">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6944" spans="1:1">
       <c r="A6944">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6945" spans="1:1">
       <c r="A6945">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6946" spans="1:1">
       <c r="A6946">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6947" spans="1:1">
       <c r="A6947">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6948" spans="1:1">
       <c r="A6948">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6949" spans="1:1">
       <c r="A6949">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6950" spans="1:1">
       <c r="A6950">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6951" spans="1:1">
       <c r="A6951">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6952" spans="1:1">
       <c r="A6952">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6953" spans="1:1">
       <c r="A6953">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6954" spans="1:1">
       <c r="A6954">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6955" spans="1:1">
       <c r="A6955">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6956" spans="1:1">
       <c r="A6956">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6957" spans="1:1">
       <c r="A6957">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6958" spans="1:1">
       <c r="A6958">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6959" spans="1:1">
       <c r="A6959">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6960" spans="1:1">
       <c r="A6960">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6961" spans="1:1">
       <c r="A6961">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6962" spans="1:1">
       <c r="A6962">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6963" spans="1:1">
       <c r="A6963">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6964" spans="1:1">
       <c r="A6964">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6965" spans="1:1">
       <c r="A6965">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6966" spans="1:1">
       <c r="A6966">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6967" spans="1:1">
       <c r="A6967">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6968" spans="1:1">
       <c r="A6968">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6969" spans="1:1">
       <c r="A6969">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6970" spans="1:1">
       <c r="A6970">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6971" spans="1:1">
       <c r="A6971">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6972" spans="1:1">
       <c r="A6972">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6973" spans="1:1">
       <c r="A6973">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6974" spans="1:1">
       <c r="A6974">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6975" spans="1:1">
       <c r="A6975">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6976" spans="1:1">
       <c r="A6976">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6977" spans="1:1">
       <c r="A6977">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6978" spans="1:1">
       <c r="A6978">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6979" spans="1:1">
       <c r="A6979">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6980" spans="1:1">
       <c r="A6980">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6981" spans="1:1">
       <c r="A6981">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6982" spans="1:1">
       <c r="A6982">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6983" spans="1:1">
       <c r="A6983">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6984" spans="1:1">
       <c r="A6984">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6985" spans="1:1">
       <c r="A6985">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6986" spans="1:1">
       <c r="A6986">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6987" spans="1:1">
       <c r="A6987">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6988" spans="1:1">
       <c r="A6988">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6989" spans="1:1">
       <c r="A6989">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6990" spans="1:1">
       <c r="A6990">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6991" spans="1:1">
       <c r="A6991">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6992" spans="1:1">
       <c r="A6992">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6993" spans="1:1">
       <c r="A6993">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6994" spans="1:1">
       <c r="A6994">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6995" spans="1:1">
       <c r="A6995">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6996" spans="1:1">
       <c r="A6996">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6997" spans="1:1">
       <c r="A6997">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6998" spans="1:1">
       <c r="A6998">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6999" spans="1:1">
       <c r="A6999">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7000" spans="1:1">
       <c r="A7000">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7001" spans="1:1">
       <c r="A7001">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7002" spans="1:1">
       <c r="A7002">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7003" spans="1:1">
       <c r="A7003">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7004" spans="1:1">
       <c r="A7004">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7005" spans="1:1">
       <c r="A7005">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7006" spans="1:1">
       <c r="A7006">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7007" spans="1:1">
       <c r="A7007">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7008" spans="1:1">
       <c r="A7008">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7009" spans="1:1">
       <c r="A7009">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7010" spans="1:1">
       <c r="A7010">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7011" spans="1:1">
       <c r="A7011">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7012" spans="1:1">
       <c r="A7012">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7013" spans="1:1">
       <c r="A7013">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7014" spans="1:1">
       <c r="A7014">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7015" spans="1:1">
       <c r="A7015">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7016" spans="1:1">
       <c r="A7016">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7017" spans="1:1">
       <c r="A7017">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7018" spans="1:1">
       <c r="A7018">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7019" spans="1:1">
       <c r="A7019">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7020" spans="1:1">
       <c r="A7020">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7021" spans="1:1">
       <c r="A7021">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7022" spans="1:1">
       <c r="A7022">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7023" spans="1:1">
       <c r="A7023">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7024" spans="1:1">
       <c r="A7024">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7025" spans="1:1">
       <c r="A7025">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7026" spans="1:1">
       <c r="A7026">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7027" spans="1:1">
       <c r="A7027">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7028" spans="1:1">
       <c r="A7028">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7029" spans="1:1">
       <c r="A7029">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7030" spans="1:1">
       <c r="A7030">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7031" spans="1:1">
       <c r="A7031">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7032" spans="1:1">
       <c r="A7032">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7033" spans="1:1">
       <c r="A7033">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7034" spans="1:1">
       <c r="A7034">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7035" spans="1:1">
@@ -40679,472 +40679,472 @@
     </row>
     <row r="8062" spans="1:1">
       <c r="A8062">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8063" spans="1:1">
       <c r="A8063">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8064" spans="1:1">
       <c r="A8064">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8065" spans="1:1">
       <c r="A8065">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8066" spans="1:1">
       <c r="A8066">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8067" spans="1:1">
       <c r="A8067">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8068" spans="1:1">
       <c r="A8068">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8069" spans="1:1">
       <c r="A8069">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8070" spans="1:1">
       <c r="A8070">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8071" spans="1:1">
       <c r="A8071">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8072" spans="1:1">
       <c r="A8072">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8073" spans="1:1">
       <c r="A8073">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8074" spans="1:1">
       <c r="A8074">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8075" spans="1:1">
       <c r="A8075">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8076" spans="1:1">
       <c r="A8076">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8077" spans="1:1">
       <c r="A8077">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8078" spans="1:1">
       <c r="A8078">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8079" spans="1:1">
       <c r="A8079">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8080" spans="1:1">
       <c r="A8080">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8081" spans="1:1">
       <c r="A8081">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8082" spans="1:1">
       <c r="A8082">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8083" spans="1:1">
       <c r="A8083">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8084" spans="1:1">
       <c r="A8084">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8085" spans="1:1">
       <c r="A8085">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8086" spans="1:1">
       <c r="A8086">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8087" spans="1:1">
       <c r="A8087">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8088" spans="1:1">
       <c r="A8088">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8089" spans="1:1">
       <c r="A8089">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8090" spans="1:1">
       <c r="A8090">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8091" spans="1:1">
       <c r="A8091">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8092" spans="1:1">
       <c r="A8092">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8093" spans="1:1">
       <c r="A8093">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8094" spans="1:1">
       <c r="A8094">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8095" spans="1:1">
       <c r="A8095">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8096" spans="1:1">
       <c r="A8096">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8097" spans="1:1">
       <c r="A8097">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8098" spans="1:1">
       <c r="A8098">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8099" spans="1:1">
       <c r="A8099">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8100" spans="1:1">
       <c r="A8100">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8101" spans="1:1">
       <c r="A8101">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8102" spans="1:1">
       <c r="A8102">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8103" spans="1:1">
       <c r="A8103">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8104" spans="1:1">
       <c r="A8104">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8105" spans="1:1">
       <c r="A8105">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8106" spans="1:1">
       <c r="A8106">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8107" spans="1:1">
       <c r="A8107">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8108" spans="1:1">
       <c r="A8108">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8109" spans="1:1">
       <c r="A8109">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8110" spans="1:1">
       <c r="A8110">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8111" spans="1:1">
       <c r="A8111">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8112" spans="1:1">
       <c r="A8112">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8113" spans="1:1">
       <c r="A8113">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8114" spans="1:1">
       <c r="A8114">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8115" spans="1:1">
       <c r="A8115">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8116" spans="1:1">
       <c r="A8116">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8117" spans="1:1">
       <c r="A8117">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8118" spans="1:1">
       <c r="A8118">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8119" spans="1:1">
       <c r="A8119">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8120" spans="1:1">
       <c r="A8120">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8121" spans="1:1">
       <c r="A8121">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8122" spans="1:1">
       <c r="A8122">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8123" spans="1:1">
       <c r="A8123">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8124" spans="1:1">
       <c r="A8124">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8125" spans="1:1">
       <c r="A8125">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8126" spans="1:1">
       <c r="A8126">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8127" spans="1:1">
       <c r="A8127">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8128" spans="1:1">
       <c r="A8128">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8129" spans="1:1">
       <c r="A8129">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8130" spans="1:1">
       <c r="A8130">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8131" spans="1:1">
       <c r="A8131">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8132" spans="1:1">
       <c r="A8132">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8133" spans="1:1">
       <c r="A8133">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8134" spans="1:1">
       <c r="A8134">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8135" spans="1:1">
       <c r="A8135">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8136" spans="1:1">
       <c r="A8136">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8137" spans="1:1">
       <c r="A8137">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8138" spans="1:1">
       <c r="A8138">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8139" spans="1:1">
       <c r="A8139">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8140" spans="1:1">
       <c r="A8140">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8141" spans="1:1">
       <c r="A8141">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8142" spans="1:1">
       <c r="A8142">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8143" spans="1:1">
       <c r="A8143">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8144" spans="1:1">
       <c r="A8144">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8145" spans="1:1">
       <c r="A8145">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8146" spans="1:1">
       <c r="A8146">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8147" spans="1:1">
       <c r="A8147">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8148" spans="1:1">
       <c r="A8148">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8149" spans="1:1">
       <c r="A8149">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8150" spans="1:1">
       <c r="A8150">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8151" spans="1:1">
       <c r="A8151">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8152" spans="1:1">
       <c r="A8152">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8153" spans="1:1">
       <c r="A8153">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8154" spans="1:1">
       <c r="A8154">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8155" spans="1:1">
       <c r="A8155">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8156" spans="1:1">
@@ -42029,292 +42029,292 @@
     </row>
     <row r="8332" spans="1:1">
       <c r="A8332">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8333" spans="1:1">
       <c r="A8333">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8334" spans="1:1">
       <c r="A8334">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8335" spans="1:1">
       <c r="A8335">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8336" spans="1:1">
       <c r="A8336">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8337" spans="1:1">
       <c r="A8337">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8338" spans="1:1">
       <c r="A8338">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8339" spans="1:1">
       <c r="A8339">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8340" spans="1:1">
       <c r="A8340">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8341" spans="1:1">
       <c r="A8341">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8342" spans="1:1">
       <c r="A8342">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8343" spans="1:1">
       <c r="A8343">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8344" spans="1:1">
       <c r="A8344">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8345" spans="1:1">
       <c r="A8345">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8346" spans="1:1">
       <c r="A8346">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8347" spans="1:1">
       <c r="A8347">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8348" spans="1:1">
       <c r="A8348">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8349" spans="1:1">
       <c r="A8349">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8350" spans="1:1">
       <c r="A8350">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8351" spans="1:1">
       <c r="A8351">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8352" spans="1:1">
       <c r="A8352">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8353" spans="1:1">
       <c r="A8353">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8354" spans="1:1">
       <c r="A8354">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8355" spans="1:1">
       <c r="A8355">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8356" spans="1:1">
       <c r="A8356">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8357" spans="1:1">
       <c r="A8357">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8358" spans="1:1">
       <c r="A8358">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8359" spans="1:1">
       <c r="A8359">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8360" spans="1:1">
       <c r="A8360">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8361" spans="1:1">
       <c r="A8361">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8362" spans="1:1">
       <c r="A8362">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8363" spans="1:1">
       <c r="A8363">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8364" spans="1:1">
       <c r="A8364">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8365" spans="1:1">
       <c r="A8365">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8366" spans="1:1">
       <c r="A8366">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8367" spans="1:1">
       <c r="A8367">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8368" spans="1:1">
       <c r="A8368">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8369" spans="1:1">
       <c r="A8369">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8370" spans="1:1">
       <c r="A8370">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8371" spans="1:1">
       <c r="A8371">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8372" spans="1:1">
       <c r="A8372">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8373" spans="1:1">
       <c r="A8373">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8374" spans="1:1">
       <c r="A8374">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8375" spans="1:1">
       <c r="A8375">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8376" spans="1:1">
       <c r="A8376">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8377" spans="1:1">
       <c r="A8377">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8378" spans="1:1">
       <c r="A8378">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8379" spans="1:1">
       <c r="A8379">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8380" spans="1:1">
       <c r="A8380">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8381" spans="1:1">
       <c r="A8381">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8382" spans="1:1">
       <c r="A8382">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8383" spans="1:1">
       <c r="A8383">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8384" spans="1:1">
       <c r="A8384">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8385" spans="1:1">
       <c r="A8385">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8386" spans="1:1">
       <c r="A8386">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8387" spans="1:1">
       <c r="A8387">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8388" spans="1:1">
       <c r="A8388">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8389" spans="1:1">
       <c r="A8389">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8390" spans="1:1">
@@ -46479,67 +46479,67 @@
     </row>
     <row r="9222" spans="1:1">
       <c r="A9222">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9223" spans="1:1">
       <c r="A9223">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9224" spans="1:1">
       <c r="A9224">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9225" spans="1:1">
       <c r="A9225">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9226" spans="1:1">
       <c r="A9226">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9227" spans="1:1">
       <c r="A9227">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9228" spans="1:1">
       <c r="A9228">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9229" spans="1:1">
       <c r="A9229">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9230" spans="1:1">
       <c r="A9230">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9231" spans="1:1">
       <c r="A9231">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9232" spans="1:1">
       <c r="A9232">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9233" spans="1:1">
       <c r="A9233">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9234" spans="1:1">
       <c r="A9234">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9235" spans="1:1">
@@ -48279,302 +48279,302 @@
     </row>
     <row r="9582" spans="1:1">
       <c r="A9582">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9583" spans="1:1">
       <c r="A9583">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9584" spans="1:1">
       <c r="A9584">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9585" spans="1:1">
       <c r="A9585">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9586" spans="1:1">
       <c r="A9586">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9587" spans="1:1">
       <c r="A9587">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9588" spans="1:1">
       <c r="A9588">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9589" spans="1:1">
       <c r="A9589">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9590" spans="1:1">
       <c r="A9590">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9591" spans="1:1">
       <c r="A9591">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9592" spans="1:1">
       <c r="A9592">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9593" spans="1:1">
       <c r="A9593">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9594" spans="1:1">
       <c r="A9594">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9595" spans="1:1">
       <c r="A9595">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9596" spans="1:1">
       <c r="A9596">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9597" spans="1:1">
       <c r="A9597">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9598" spans="1:1">
       <c r="A9598">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9599" spans="1:1">
       <c r="A9599">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9600" spans="1:1">
       <c r="A9600">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9601" spans="1:1">
       <c r="A9601">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9602" spans="1:1">
       <c r="A9602">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9603" spans="1:1">
       <c r="A9603">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9604" spans="1:1">
       <c r="A9604">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9605" spans="1:1">
       <c r="A9605">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9606" spans="1:1">
       <c r="A9606">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9607" spans="1:1">
       <c r="A9607">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9608" spans="1:1">
       <c r="A9608">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9609" spans="1:1">
       <c r="A9609">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9610" spans="1:1">
       <c r="A9610">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9611" spans="1:1">
       <c r="A9611">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9612" spans="1:1">
       <c r="A9612">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9613" spans="1:1">
       <c r="A9613">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9614" spans="1:1">
       <c r="A9614">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9615" spans="1:1">
       <c r="A9615">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9616" spans="1:1">
       <c r="A9616">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9617" spans="1:1">
       <c r="A9617">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9618" spans="1:1">
       <c r="A9618">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9619" spans="1:1">
       <c r="A9619">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9620" spans="1:1">
       <c r="A9620">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9621" spans="1:1">
       <c r="A9621">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9622" spans="1:1">
       <c r="A9622">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9623" spans="1:1">
       <c r="A9623">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9624" spans="1:1">
       <c r="A9624">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9625" spans="1:1">
       <c r="A9625">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9626" spans="1:1">
       <c r="A9626">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9627" spans="1:1">
       <c r="A9627">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9628" spans="1:1">
       <c r="A9628">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9629" spans="1:1">
       <c r="A9629">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9630" spans="1:1">
       <c r="A9630">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9631" spans="1:1">
       <c r="A9631">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9632" spans="1:1">
       <c r="A9632">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9633" spans="1:1">
       <c r="A9633">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9634" spans="1:1">
       <c r="A9634">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9635" spans="1:1">
       <c r="A9635">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9636" spans="1:1">
       <c r="A9636">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9637" spans="1:1">
       <c r="A9637">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9638" spans="1:1">
       <c r="A9638">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9639" spans="1:1">
       <c r="A9639">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9640" spans="1:1">
       <c r="A9640">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9641" spans="1:1">
       <c r="A9641">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9642" spans="1:1">
@@ -48849,197 +48849,197 @@
     </row>
     <row r="9696" spans="1:1">
       <c r="A9696">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9697" spans="1:1">
       <c r="A9697">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9698" spans="1:1">
       <c r="A9698">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9699" spans="1:1">
       <c r="A9699">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9700" spans="1:1">
       <c r="A9700">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9701" spans="1:1">
       <c r="A9701">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9702" spans="1:1">
       <c r="A9702">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9703" spans="1:1">
       <c r="A9703">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9704" spans="1:1">
       <c r="A9704">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9705" spans="1:1">
       <c r="A9705">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9706" spans="1:1">
       <c r="A9706">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9707" spans="1:1">
       <c r="A9707">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9708" spans="1:1">
       <c r="A9708">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9709" spans="1:1">
       <c r="A9709">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9710" spans="1:1">
       <c r="A9710">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9711" spans="1:1">
       <c r="A9711">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9712" spans="1:1">
       <c r="A9712">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9713" spans="1:1">
       <c r="A9713">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9714" spans="1:1">
       <c r="A9714">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9715" spans="1:1">
       <c r="A9715">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9716" spans="1:1">
       <c r="A9716">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9717" spans="1:1">
       <c r="A9717">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9718" spans="1:1">
       <c r="A9718">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9719" spans="1:1">
       <c r="A9719">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9720" spans="1:1">
       <c r="A9720">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9721" spans="1:1">
       <c r="A9721">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9722" spans="1:1">
       <c r="A9722">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9723" spans="1:1">
       <c r="A9723">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9724" spans="1:1">
       <c r="A9724">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9725" spans="1:1">
       <c r="A9725">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9726" spans="1:1">
       <c r="A9726">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9727" spans="1:1">
       <c r="A9727">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9728" spans="1:1">
       <c r="A9728">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9729" spans="1:1">
       <c r="A9729">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9730" spans="1:1">
       <c r="A9730">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9731" spans="1:1">
       <c r="A9731">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9732" spans="1:1">
       <c r="A9732">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9733" spans="1:1">
       <c r="A9733">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9734" spans="1:1">
       <c r="A9734">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9735" spans="1:1">
@@ -49329,317 +49329,317 @@
     </row>
     <row r="9792" spans="1:1">
       <c r="A9792">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9793" spans="1:1">
       <c r="A9793">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9794" spans="1:1">
       <c r="A9794">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9795" spans="1:1">
       <c r="A9795">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9796" spans="1:1">
       <c r="A9796">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9797" spans="1:1">
       <c r="A9797">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9798" spans="1:1">
       <c r="A9798">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9799" spans="1:1">
       <c r="A9799">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9800" spans="1:1">
       <c r="A9800">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9801" spans="1:1">
       <c r="A9801">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9802" spans="1:1">
       <c r="A9802">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9803" spans="1:1">
       <c r="A9803">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9804" spans="1:1">
       <c r="A9804">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9805" spans="1:1">
       <c r="A9805">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9806" spans="1:1">
       <c r="A9806">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9807" spans="1:1">
       <c r="A9807">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9808" spans="1:1">
       <c r="A9808">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9809" spans="1:1">
       <c r="A9809">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9810" spans="1:1">
       <c r="A9810">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9811" spans="1:1">
       <c r="A9811">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9812" spans="1:1">
       <c r="A9812">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9813" spans="1:1">
       <c r="A9813">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9814" spans="1:1">
       <c r="A9814">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9815" spans="1:1">
       <c r="A9815">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9816" spans="1:1">
       <c r="A9816">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9817" spans="1:1">
       <c r="A9817">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9818" spans="1:1">
       <c r="A9818">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9819" spans="1:1">
       <c r="A9819">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9820" spans="1:1">
       <c r="A9820">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9821" spans="1:1">
       <c r="A9821">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9822" spans="1:1">
       <c r="A9822">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9823" spans="1:1">
       <c r="A9823">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9824" spans="1:1">
       <c r="A9824">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9825" spans="1:1">
       <c r="A9825">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9826" spans="1:1">
       <c r="A9826">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9827" spans="1:1">
       <c r="A9827">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9828" spans="1:1">
       <c r="A9828">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9829" spans="1:1">
       <c r="A9829">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9830" spans="1:1">
       <c r="A9830">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9831" spans="1:1">
       <c r="A9831">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9832" spans="1:1">
       <c r="A9832">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9833" spans="1:1">
       <c r="A9833">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9834" spans="1:1">
       <c r="A9834">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9835" spans="1:1">
       <c r="A9835">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9836" spans="1:1">
       <c r="A9836">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9837" spans="1:1">
       <c r="A9837">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9838" spans="1:1">
       <c r="A9838">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9839" spans="1:1">
       <c r="A9839">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9840" spans="1:1">
       <c r="A9840">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9841" spans="1:1">
       <c r="A9841">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9842" spans="1:1">
       <c r="A9842">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9843" spans="1:1">
       <c r="A9843">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9844" spans="1:1">
       <c r="A9844">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9845" spans="1:1">
       <c r="A9845">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9846" spans="1:1">
       <c r="A9846">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9847" spans="1:1">
       <c r="A9847">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9848" spans="1:1">
       <c r="A9848">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9849" spans="1:1">
       <c r="A9849">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9850" spans="1:1">
       <c r="A9850">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9851" spans="1:1">
       <c r="A9851">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9852" spans="1:1">
       <c r="A9852">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9853" spans="1:1">
       <c r="A9853">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9854" spans="1:1">
       <c r="A9854">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9855" spans="1:1">

--- a/StROBe/Data/EV_load_profile.xlsx
+++ b/StROBe/Data/EV_load_profile.xlsx
@@ -5879,52 +5879,52 @@
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
@@ -6129,952 +6129,952 @@
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
@@ -11279,202 +11279,202 @@
     </row>
     <row r="2182" spans="1:1">
       <c r="A2182">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2183" spans="1:1">
       <c r="A2183">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2184" spans="1:1">
       <c r="A2184">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2185" spans="1:1">
       <c r="A2185">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2186" spans="1:1">
       <c r="A2186">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2187" spans="1:1">
       <c r="A2187">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2188" spans="1:1">
       <c r="A2188">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2189" spans="1:1">
       <c r="A2189">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2190" spans="1:1">
       <c r="A2190">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2191" spans="1:1">
       <c r="A2191">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2192" spans="1:1">
       <c r="A2192">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2193" spans="1:1">
       <c r="A2193">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2194" spans="1:1">
       <c r="A2194">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2195" spans="1:1">
       <c r="A2195">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2196" spans="1:1">
       <c r="A2196">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2197" spans="1:1">
       <c r="A2197">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2198" spans="1:1">
       <c r="A2198">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2199" spans="1:1">
       <c r="A2199">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2200" spans="1:1">
       <c r="A2200">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2201" spans="1:1">
       <c r="A2201">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2202" spans="1:1">
       <c r="A2202">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2203" spans="1:1">
       <c r="A2203">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2204" spans="1:1">
       <c r="A2204">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2205" spans="1:1">
       <c r="A2205">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2206" spans="1:1">
       <c r="A2206">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2207" spans="1:1">
       <c r="A2207">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2208" spans="1:1">
       <c r="A2208">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2209" spans="1:1">
       <c r="A2209">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2210" spans="1:1">
       <c r="A2210">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2211" spans="1:1">
       <c r="A2211">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2212" spans="1:1">
       <c r="A2212">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2213" spans="1:1">
       <c r="A2213">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2214" spans="1:1">
       <c r="A2214">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2215" spans="1:1">
       <c r="A2215">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2216" spans="1:1">
       <c r="A2216">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2217" spans="1:1">
       <c r="A2217">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2218" spans="1:1">
       <c r="A2218">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2219" spans="1:1">
       <c r="A2219">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2220" spans="1:1">
       <c r="A2220">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2221" spans="1:1">
       <c r="A2221">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2222" spans="1:1">
@@ -11629,292 +11629,292 @@
     </row>
     <row r="2252" spans="1:1">
       <c r="A2252">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2253" spans="1:1">
       <c r="A2253">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2254" spans="1:1">
       <c r="A2254">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2255" spans="1:1">
       <c r="A2255">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2256" spans="1:1">
       <c r="A2256">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2257" spans="1:1">
       <c r="A2257">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2258" spans="1:1">
       <c r="A2258">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2259" spans="1:1">
       <c r="A2259">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2260" spans="1:1">
       <c r="A2260">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2261" spans="1:1">
       <c r="A2261">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2262" spans="1:1">
       <c r="A2262">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2263" spans="1:1">
       <c r="A2263">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2264" spans="1:1">
       <c r="A2264">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2265" spans="1:1">
       <c r="A2265">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2266" spans="1:1">
       <c r="A2266">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2267" spans="1:1">
       <c r="A2267">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2268" spans="1:1">
       <c r="A2268">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2269" spans="1:1">
       <c r="A2269">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2270" spans="1:1">
       <c r="A2270">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2271" spans="1:1">
       <c r="A2271">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2272" spans="1:1">
       <c r="A2272">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2273" spans="1:1">
       <c r="A2273">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2274" spans="1:1">
       <c r="A2274">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2275" spans="1:1">
       <c r="A2275">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2276" spans="1:1">
       <c r="A2276">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2277" spans="1:1">
       <c r="A2277">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2278" spans="1:1">
       <c r="A2278">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2279" spans="1:1">
       <c r="A2279">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2280" spans="1:1">
       <c r="A2280">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2281" spans="1:1">
       <c r="A2281">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2282" spans="1:1">
       <c r="A2282">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283" spans="1:1">
       <c r="A2283">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2284" spans="1:1">
       <c r="A2284">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2285" spans="1:1">
       <c r="A2285">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2286" spans="1:1">
       <c r="A2286">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2287" spans="1:1">
       <c r="A2287">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2288" spans="1:1">
       <c r="A2288">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2289" spans="1:1">
       <c r="A2289">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2290" spans="1:1">
       <c r="A2290">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2291" spans="1:1">
       <c r="A2291">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2292" spans="1:1">
       <c r="A2292">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2293" spans="1:1">
       <c r="A2293">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2294" spans="1:1">
       <c r="A2294">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2295" spans="1:1">
       <c r="A2295">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2296" spans="1:1">
       <c r="A2296">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2297" spans="1:1">
       <c r="A2297">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2298" spans="1:1">
       <c r="A2298">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2299" spans="1:1">
       <c r="A2299">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2300" spans="1:1">
       <c r="A2300">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301" spans="1:1">
       <c r="A2301">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2302" spans="1:1">
       <c r="A2302">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2303" spans="1:1">
       <c r="A2303">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2304" spans="1:1">
       <c r="A2304">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2305" spans="1:1">
       <c r="A2305">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2306" spans="1:1">
       <c r="A2306">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2307" spans="1:1">
       <c r="A2307">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2308" spans="1:1">
       <c r="A2308">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2309" spans="1:1">
       <c r="A2309">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2310" spans="1:1">
@@ -12779,172 +12779,172 @@
     </row>
     <row r="2482" spans="1:1">
       <c r="A2482">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2483" spans="1:1">
       <c r="A2483">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2484" spans="1:1">
       <c r="A2484">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2485" spans="1:1">
       <c r="A2485">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486" spans="1:1">
       <c r="A2486">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2487" spans="1:1">
       <c r="A2487">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2488" spans="1:1">
       <c r="A2488">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2489" spans="1:1">
       <c r="A2489">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2490" spans="1:1">
       <c r="A2490">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2491" spans="1:1">
       <c r="A2491">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2492" spans="1:1">
       <c r="A2492">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2493" spans="1:1">
       <c r="A2493">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2494" spans="1:1">
       <c r="A2494">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2495" spans="1:1">
       <c r="A2495">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2496" spans="1:1">
       <c r="A2496">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2497" spans="1:1">
       <c r="A2497">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2498" spans="1:1">
       <c r="A2498">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="1:1">
       <c r="A2499">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2500" spans="1:1">
       <c r="A2500">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2501" spans="1:1">
       <c r="A2501">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2502" spans="1:1">
       <c r="A2502">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2503" spans="1:1">
       <c r="A2503">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2504" spans="1:1">
       <c r="A2504">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2505" spans="1:1">
       <c r="A2505">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2506" spans="1:1">
       <c r="A2506">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2507" spans="1:1">
       <c r="A2507">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2508" spans="1:1">
       <c r="A2508">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2509" spans="1:1">
       <c r="A2509">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2510" spans="1:1">
       <c r="A2510">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2511" spans="1:1">
       <c r="A2511">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2512" spans="1:1">
       <c r="A2512">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2513" spans="1:1">
       <c r="A2513">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2514" spans="1:1">
       <c r="A2514">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2515" spans="1:1">
       <c r="A2515">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2516" spans="1:1">
@@ -14029,52 +14029,52 @@
     </row>
     <row r="2732" spans="1:1">
       <c r="A2732">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2733" spans="1:1">
       <c r="A2733">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2734" spans="1:1">
       <c r="A2734">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2735" spans="1:1">
       <c r="A2735">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2736" spans="1:1">
       <c r="A2736">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2737" spans="1:1">
       <c r="A2737">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2738" spans="1:1">
       <c r="A2738">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2739" spans="1:1">
       <c r="A2739">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2740" spans="1:1">
       <c r="A2740">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2741" spans="1:1">
       <c r="A2741">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742" spans="1:1">
@@ -14364,417 +14364,417 @@
     </row>
     <row r="2799" spans="1:1">
       <c r="A2799">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2800" spans="1:1">
       <c r="A2800">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2801" spans="1:1">
       <c r="A2801">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2802" spans="1:1">
       <c r="A2802">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2803" spans="1:1">
       <c r="A2803">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2804" spans="1:1">
       <c r="A2804">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2805" spans="1:1">
       <c r="A2805">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2806" spans="1:1">
       <c r="A2806">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2807" spans="1:1">
       <c r="A2807">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2808" spans="1:1">
       <c r="A2808">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2809" spans="1:1">
       <c r="A2809">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2810" spans="1:1">
       <c r="A2810">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2811" spans="1:1">
       <c r="A2811">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2812" spans="1:1">
       <c r="A2812">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2813" spans="1:1">
       <c r="A2813">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2814" spans="1:1">
       <c r="A2814">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2815" spans="1:1">
       <c r="A2815">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2816" spans="1:1">
       <c r="A2816">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2817" spans="1:1">
       <c r="A2817">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2818" spans="1:1">
       <c r="A2818">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2819" spans="1:1">
       <c r="A2819">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2820" spans="1:1">
       <c r="A2820">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2821" spans="1:1">
       <c r="A2821">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2822" spans="1:1">
       <c r="A2822">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2823" spans="1:1">
       <c r="A2823">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2824" spans="1:1">
       <c r="A2824">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2825" spans="1:1">
       <c r="A2825">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2826" spans="1:1">
       <c r="A2826">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2827" spans="1:1">
       <c r="A2827">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2828" spans="1:1">
       <c r="A2828">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2829" spans="1:1">
       <c r="A2829">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2830" spans="1:1">
       <c r="A2830">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2831" spans="1:1">
       <c r="A2831">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2832" spans="1:1">
       <c r="A2832">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2833" spans="1:1">
       <c r="A2833">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2834" spans="1:1">
       <c r="A2834">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2835" spans="1:1">
       <c r="A2835">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2836" spans="1:1">
       <c r="A2836">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2837" spans="1:1">
       <c r="A2837">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2838" spans="1:1">
       <c r="A2838">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2839" spans="1:1">
       <c r="A2839">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2840" spans="1:1">
       <c r="A2840">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2841" spans="1:1">
       <c r="A2841">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2842" spans="1:1">
       <c r="A2842">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2843" spans="1:1">
       <c r="A2843">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2844" spans="1:1">
       <c r="A2844">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2845" spans="1:1">
       <c r="A2845">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2846" spans="1:1">
       <c r="A2846">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2847" spans="1:1">
       <c r="A2847">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2848" spans="1:1">
       <c r="A2848">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2849" spans="1:1">
       <c r="A2849">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2850" spans="1:1">
       <c r="A2850">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2851" spans="1:1">
       <c r="A2851">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2852" spans="1:1">
       <c r="A2852">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2853" spans="1:1">
       <c r="A2853">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2854" spans="1:1">
       <c r="A2854">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2855" spans="1:1">
       <c r="A2855">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2856" spans="1:1">
       <c r="A2856">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2857" spans="1:1">
       <c r="A2857">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2858" spans="1:1">
       <c r="A2858">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2859" spans="1:1">
       <c r="A2859">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2860" spans="1:1">
       <c r="A2860">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2861" spans="1:1">
       <c r="A2861">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2862" spans="1:1">
       <c r="A2862">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2863" spans="1:1">
       <c r="A2863">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2864" spans="1:1">
       <c r="A2864">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2865" spans="1:1">
       <c r="A2865">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2866" spans="1:1">
       <c r="A2866">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2867" spans="1:1">
       <c r="A2867">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2868" spans="1:1">
       <c r="A2868">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2869" spans="1:1">
       <c r="A2869">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2870" spans="1:1">
       <c r="A2870">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2871" spans="1:1">
       <c r="A2871">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2872" spans="1:1">
       <c r="A2872">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2873" spans="1:1">
       <c r="A2873">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2874" spans="1:1">
       <c r="A2874">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2875" spans="1:1">
       <c r="A2875">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2876" spans="1:1">
       <c r="A2876">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2877" spans="1:1">
       <c r="A2877">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2878" spans="1:1">
       <c r="A2878">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2879" spans="1:1">
       <c r="A2879">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2880" spans="1:1">
       <c r="A2880">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="2881" spans="1:1">
       <c r="A2881">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/StROBe/Data/EV_load_profile.xlsx
+++ b/StROBe/Data/EV_load_profile.xlsx
@@ -5629,952 +5629,952 @@
     </row>
     <row r="1052" spans="1:1">
       <c r="A1052">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1053" spans="1:1">
       <c r="A1053">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1054" spans="1:1">
       <c r="A1054">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1055" spans="1:1">
       <c r="A1055">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1056" spans="1:1">
       <c r="A1056">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1057" spans="1:1">
       <c r="A1057">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1059" spans="1:1">
       <c r="A1059">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1060" spans="1:1">
       <c r="A1060">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1061" spans="1:1">
       <c r="A1061">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1062" spans="1:1">
       <c r="A1062">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1063" spans="1:1">
       <c r="A1063">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1064" spans="1:1">
       <c r="A1064">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1065" spans="1:1">
       <c r="A1065">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1066" spans="1:1">
       <c r="A1066">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1067" spans="1:1">
       <c r="A1067">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1069" spans="1:1">
       <c r="A1069">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1070" spans="1:1">
       <c r="A1070">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1071" spans="1:1">
       <c r="A1071">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1072" spans="1:1">
       <c r="A1072">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1073" spans="1:1">
       <c r="A1073">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1074" spans="1:1">
       <c r="A1074">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1075" spans="1:1">
       <c r="A1075">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1076" spans="1:1">
       <c r="A1076">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1077" spans="1:1">
       <c r="A1077">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1078" spans="1:1">
       <c r="A1078">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1079" spans="1:1">
       <c r="A1079">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1080" spans="1:1">
       <c r="A1080">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1081" spans="1:1">
       <c r="A1081">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1082" spans="1:1">
       <c r="A1082">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1083" spans="1:1">
       <c r="A1083">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1084" spans="1:1">
       <c r="A1084">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1085" spans="1:1">
       <c r="A1085">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1086" spans="1:1">
       <c r="A1086">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1087" spans="1:1">
       <c r="A1087">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1088" spans="1:1">
       <c r="A1088">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1089" spans="1:1">
       <c r="A1089">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1090" spans="1:1">
       <c r="A1090">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1091" spans="1:1">
       <c r="A1091">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1092" spans="1:1">
       <c r="A1092">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1093" spans="1:1">
       <c r="A1093">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1094" spans="1:1">
       <c r="A1094">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1095" spans="1:1">
       <c r="A1095">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1096" spans="1:1">
       <c r="A1096">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1097" spans="1:1">
       <c r="A1097">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1098" spans="1:1">
       <c r="A1098">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1099" spans="1:1">
       <c r="A1099">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1100" spans="1:1">
       <c r="A1100">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1101" spans="1:1">
       <c r="A1101">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1102" spans="1:1">
       <c r="A1102">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1103" spans="1:1">
       <c r="A1103">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1104" spans="1:1">
       <c r="A1104">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1105" spans="1:1">
       <c r="A1105">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1106" spans="1:1">
       <c r="A1106">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1107" spans="1:1">
       <c r="A1107">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1108" spans="1:1">
       <c r="A1108">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1109" spans="1:1">
       <c r="A1109">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1110" spans="1:1">
       <c r="A1110">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1111" spans="1:1">
       <c r="A1111">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1112" spans="1:1">
       <c r="A1112">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1113" spans="1:1">
       <c r="A1113">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1114" spans="1:1">
       <c r="A1114">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1115" spans="1:1">
       <c r="A1115">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1116" spans="1:1">
       <c r="A1116">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1117" spans="1:1">
       <c r="A1117">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1118" spans="1:1">
       <c r="A1118">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1119" spans="1:1">
       <c r="A1119">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1120" spans="1:1">
       <c r="A1120">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1121" spans="1:1">
       <c r="A1121">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1122" spans="1:1">
       <c r="A1122">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1123" spans="1:1">
       <c r="A1123">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1124" spans="1:1">
       <c r="A1124">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1125" spans="1:1">
       <c r="A1125">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1126" spans="1:1">
       <c r="A1126">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1127" spans="1:1">
       <c r="A1127">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1128" spans="1:1">
       <c r="A1128">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1129" spans="1:1">
       <c r="A1129">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1130" spans="1:1">
       <c r="A1130">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1131" spans="1:1">
       <c r="A1131">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1132" spans="1:1">
       <c r="A1132">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1133" spans="1:1">
       <c r="A1133">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1134" spans="1:1">
       <c r="A1134">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1135" spans="1:1">
       <c r="A1135">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1136" spans="1:1">
       <c r="A1136">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1137" spans="1:1">
       <c r="A1137">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1138" spans="1:1">
       <c r="A1138">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1139" spans="1:1">
       <c r="A1139">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1140" spans="1:1">
       <c r="A1140">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1141" spans="1:1">
       <c r="A1141">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1142" spans="1:1">
       <c r="A1142">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1143" spans="1:1">
       <c r="A1143">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1144" spans="1:1">
       <c r="A1144">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1145" spans="1:1">
       <c r="A1145">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1146" spans="1:1">
       <c r="A1146">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1147" spans="1:1">
       <c r="A1147">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1148" spans="1:1">
       <c r="A1148">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1149" spans="1:1">
       <c r="A1149">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1150" spans="1:1">
       <c r="A1150">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1151" spans="1:1">
       <c r="A1151">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1152" spans="1:1">
       <c r="A1152">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1153" spans="1:1">
       <c r="A1153">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1155" spans="1:1">
       <c r="A1155">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1156" spans="1:1">
       <c r="A1156">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1157" spans="1:1">
       <c r="A1157">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1158" spans="1:1">
       <c r="A1158">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1159" spans="1:1">
       <c r="A1159">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1160" spans="1:1">
       <c r="A1160">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1161" spans="1:1">
       <c r="A1161">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1162" spans="1:1">
       <c r="A1162">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1163" spans="1:1">
       <c r="A1163">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1165" spans="1:1">
       <c r="A1165">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1166" spans="1:1">
       <c r="A1166">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1167" spans="1:1">
       <c r="A1167">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1168" spans="1:1">
       <c r="A1168">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1169" spans="1:1">
       <c r="A1169">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1170" spans="1:1">
       <c r="A1170">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1171" spans="1:1">
       <c r="A1171">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1172" spans="1:1">
       <c r="A1172">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1173" spans="1:1">
       <c r="A1173">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1174" spans="1:1">
       <c r="A1174">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1175" spans="1:1">
       <c r="A1175">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1177" spans="1:1">
       <c r="A1177">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1178" spans="1:1">
       <c r="A1178">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1179" spans="1:1">
       <c r="A1179">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1180" spans="1:1">
       <c r="A1180">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1181" spans="1:1">
       <c r="A1181">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1182" spans="1:1">
       <c r="A1182">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1183" spans="1:1">
       <c r="A1183">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1184" spans="1:1">
       <c r="A1184">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
@@ -14079,702 +14079,702 @@
     </row>
     <row r="2742" spans="1:1">
       <c r="A2742">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2743" spans="1:1">
       <c r="A2743">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2744" spans="1:1">
       <c r="A2744">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2745" spans="1:1">
       <c r="A2745">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2746" spans="1:1">
       <c r="A2746">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2747" spans="1:1">
       <c r="A2747">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2748" spans="1:1">
       <c r="A2748">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2749" spans="1:1">
       <c r="A2749">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2750" spans="1:1">
       <c r="A2750">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2751" spans="1:1">
       <c r="A2751">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2752" spans="1:1">
       <c r="A2752">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2753" spans="1:1">
       <c r="A2753">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2754" spans="1:1">
       <c r="A2754">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2755" spans="1:1">
       <c r="A2755">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2756" spans="1:1">
       <c r="A2756">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2757" spans="1:1">
       <c r="A2757">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2758" spans="1:1">
       <c r="A2758">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2759" spans="1:1">
       <c r="A2759">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2760" spans="1:1">
       <c r="A2760">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2761" spans="1:1">
       <c r="A2761">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2762" spans="1:1">
       <c r="A2762">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2763" spans="1:1">
       <c r="A2763">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2764" spans="1:1">
       <c r="A2764">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2765" spans="1:1">
       <c r="A2765">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2766" spans="1:1">
       <c r="A2766">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2767" spans="1:1">
       <c r="A2767">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2768" spans="1:1">
       <c r="A2768">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2769" spans="1:1">
       <c r="A2769">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2770" spans="1:1">
       <c r="A2770">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2771" spans="1:1">
       <c r="A2771">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2772" spans="1:1">
       <c r="A2772">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2773" spans="1:1">
       <c r="A2773">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2774" spans="1:1">
       <c r="A2774">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2775" spans="1:1">
       <c r="A2775">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2776" spans="1:1">
       <c r="A2776">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2777" spans="1:1">
       <c r="A2777">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2778" spans="1:1">
       <c r="A2778">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2779" spans="1:1">
       <c r="A2779">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2780" spans="1:1">
       <c r="A2780">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2781" spans="1:1">
       <c r="A2781">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2782" spans="1:1">
       <c r="A2782">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2783" spans="1:1">
       <c r="A2783">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2784" spans="1:1">
       <c r="A2784">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2785" spans="1:1">
       <c r="A2785">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2786" spans="1:1">
       <c r="A2786">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2787" spans="1:1">
       <c r="A2787">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2788" spans="1:1">
       <c r="A2788">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2789" spans="1:1">
       <c r="A2789">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2790" spans="1:1">
       <c r="A2790">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2791" spans="1:1">
       <c r="A2791">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2792" spans="1:1">
       <c r="A2792">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2793" spans="1:1">
       <c r="A2793">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2794" spans="1:1">
       <c r="A2794">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2795" spans="1:1">
       <c r="A2795">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2796" spans="1:1">
       <c r="A2796">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2797" spans="1:1">
       <c r="A2797">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2798" spans="1:1">
       <c r="A2798">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2799" spans="1:1">
       <c r="A2799">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2800" spans="1:1">
       <c r="A2800">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2801" spans="1:1">
       <c r="A2801">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2802" spans="1:1">
       <c r="A2802">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2803" spans="1:1">
       <c r="A2803">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2804" spans="1:1">
       <c r="A2804">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2805" spans="1:1">
       <c r="A2805">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2806" spans="1:1">
       <c r="A2806">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2807" spans="1:1">
       <c r="A2807">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2808" spans="1:1">
       <c r="A2808">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2809" spans="1:1">
       <c r="A2809">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2810" spans="1:1">
       <c r="A2810">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2811" spans="1:1">
       <c r="A2811">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2812" spans="1:1">
       <c r="A2812">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2813" spans="1:1">
       <c r="A2813">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2814" spans="1:1">
       <c r="A2814">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2815" spans="1:1">
       <c r="A2815">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2816" spans="1:1">
       <c r="A2816">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2817" spans="1:1">
       <c r="A2817">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2818" spans="1:1">
       <c r="A2818">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2819" spans="1:1">
       <c r="A2819">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2820" spans="1:1">
       <c r="A2820">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2821" spans="1:1">
       <c r="A2821">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2822" spans="1:1">
       <c r="A2822">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2823" spans="1:1">
       <c r="A2823">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2824" spans="1:1">
       <c r="A2824">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2825" spans="1:1">
       <c r="A2825">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2826" spans="1:1">
       <c r="A2826">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2827" spans="1:1">
       <c r="A2827">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2828" spans="1:1">
       <c r="A2828">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2829" spans="1:1">
       <c r="A2829">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2830" spans="1:1">
       <c r="A2830">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2831" spans="1:1">
       <c r="A2831">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2832" spans="1:1">
       <c r="A2832">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2833" spans="1:1">
       <c r="A2833">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2834" spans="1:1">
       <c r="A2834">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2835" spans="1:1">
       <c r="A2835">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2836" spans="1:1">
       <c r="A2836">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2837" spans="1:1">
       <c r="A2837">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2838" spans="1:1">
       <c r="A2838">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2839" spans="1:1">
       <c r="A2839">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2840" spans="1:1">
       <c r="A2840">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2841" spans="1:1">
       <c r="A2841">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2842" spans="1:1">
       <c r="A2842">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2843" spans="1:1">
       <c r="A2843">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2844" spans="1:1">
       <c r="A2844">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2845" spans="1:1">
       <c r="A2845">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2846" spans="1:1">
       <c r="A2846">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2847" spans="1:1">
       <c r="A2847">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2848" spans="1:1">
       <c r="A2848">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2849" spans="1:1">
       <c r="A2849">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2850" spans="1:1">
       <c r="A2850">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2851" spans="1:1">
       <c r="A2851">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2852" spans="1:1">
       <c r="A2852">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2853" spans="1:1">
       <c r="A2853">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2854" spans="1:1">
       <c r="A2854">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2855" spans="1:1">
       <c r="A2855">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2856" spans="1:1">
       <c r="A2856">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2857" spans="1:1">
       <c r="A2857">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2858" spans="1:1">
       <c r="A2858">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2859" spans="1:1">
       <c r="A2859">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2860" spans="1:1">
       <c r="A2860">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2861" spans="1:1">
       <c r="A2861">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2862" spans="1:1">
       <c r="A2862">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2863" spans="1:1">
       <c r="A2863">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2864" spans="1:1">
       <c r="A2864">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2865" spans="1:1">
       <c r="A2865">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2866" spans="1:1">
       <c r="A2866">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2867" spans="1:1">
       <c r="A2867">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2868" spans="1:1">
       <c r="A2868">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2869" spans="1:1">
       <c r="A2869">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2870" spans="1:1">
       <c r="A2870">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2871" spans="1:1">
       <c r="A2871">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2872" spans="1:1">
       <c r="A2872">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2873" spans="1:1">
       <c r="A2873">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2874" spans="1:1">
       <c r="A2874">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2875" spans="1:1">
       <c r="A2875">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2876" spans="1:1">
       <c r="A2876">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2877" spans="1:1">
       <c r="A2877">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2878" spans="1:1">
       <c r="A2878">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2879" spans="1:1">
       <c r="A2879">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2880" spans="1:1">
       <c r="A2880">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2881" spans="1:1">
       <c r="A2881">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
